--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0516B5E4-B4C4-4231-82AB-7282BB7489DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -25,10 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,14 +130,18 @@
   </si>
   <si>
     <t>org_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,7 +212,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -255,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,27 +286,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,24 +320,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,14 +495,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
@@ -549,162 +512,162 @@
     <col min="8" max="8" width="28.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="2"/>
-      <c r="F2" t="s">
-        <v>2</v>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="2"/>
-      <c r="F3" t="s">
-        <v>2</v>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>2</v>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>2</v>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>2</v>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="2"/>
-      <c r="F7" t="s">
-        <v>2</v>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>note</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,45 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域管理(类别管理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>区域管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="I8" sqref="I8:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -556,7 +595,7 @@
         <v>30</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -580,7 +619,7 @@
         <v>30</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
@@ -601,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>11</v>
@@ -622,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>11</v>
@@ -643,7 +682,10 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>11</v>
@@ -664,9 +706,69 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>70</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>权限管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +106,6 @@
     <t>104</t>
   </si>
   <si>
-    <t>区域管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +165,14 @@
   </si>
   <si>
     <t>areaManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +538,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -592,13 +592,13 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>12</v>
@@ -616,7 +616,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -630,10 +630,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -648,13 +648,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -669,13 +669,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -685,7 +685,7 @@
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>11</v>
@@ -693,13 +693,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -714,13 +714,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
@@ -754,13 +754,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -1,202 +1,707 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="174">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
   <si>
     <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isLeaf</t>
+  </si>
+  <si>
+    <t>dirId</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>用户管理,包含区域管理员管理</t>
+  </si>
+  <si>
+    <t>101</t>
   </si>
   <si>
     <t>角色管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isLeaf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能菜单</t>
   </si>
   <si>
     <t>function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织机构管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业管理</t>
   </si>
   <si>
     <t>org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>104</t>
   </si>
   <si>
+    <t>类别管理</t>
+  </si>
+  <si>
     <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理,包含区域管理员管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域管理(类别管理)</t>
   </si>
   <si>
     <t>105</t>
   </si>
   <si>
-    <t>企业类别管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>企业类别</t>
   </si>
   <si>
     <t>org_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
   </si>
   <si>
     <t>模式管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>schema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
   </si>
   <si>
     <t>目录管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>directory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域管理(类别管理)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>108</t>
   </si>
   <si>
     <t>区域管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>areaManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>企业简要介绍</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>企业资质证书</t>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>管理组织架构</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>企业人员资料</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>法律法规政策</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>安全制度规章</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>企业发文通知</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>企业架构设置</t>
+  </si>
+  <si>
+    <t>structureSet</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>岗位设置任命</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>集体机构任命</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>基层岗位类别</t>
+  </si>
+  <si>
+    <t>positionCategory</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>岗位人员档案</t>
+  </si>
+  <si>
+    <t>positionArchives</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>类别人员档案</t>
+  </si>
+  <si>
+    <t>categoryArchives</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>所有资质展示</t>
+  </si>
+  <si>
+    <t>qualificationsShow</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>运营设备档案</t>
+  </si>
+  <si>
+    <t>operateArchives</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>安全设备档案</t>
+  </si>
+  <si>
+    <t>securityArchives</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>应急设备档案</t>
+  </si>
+  <si>
+    <t>emergencyArchives</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>特种设备档案</t>
+  </si>
+  <si>
+    <t>specialArchives</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>其他设备档案</t>
+  </si>
+  <si>
+    <t>otherArchives</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>安全投入台账</t>
+  </si>
+  <si>
+    <t>safetyAccount</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>GPS监控台账</t>
+  </si>
+  <si>
+    <t>GPSAccount</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>安全会议台账</t>
+  </si>
+  <si>
+    <t>safetyMeetingAccount</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>宣传教育培训</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>日常安全检查</t>
+  </si>
+  <si>
+    <t>securityCheck</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>安全隐患排查</t>
+  </si>
+  <si>
+    <t>hiddenDangerCheck</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>责任制考核</t>
+  </si>
+  <si>
+    <t>examination</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>安全责任考核</t>
+  </si>
+  <si>
+    <t>securityExamination</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>安全目标考核</t>
+  </si>
+  <si>
+    <t>goalExamination</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>应急预案演练</t>
+  </si>
+  <si>
+    <t>emergencyPlanDrill</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>职业健康记录</t>
+  </si>
+  <si>
+    <t>healthyRecord</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>三年行动计划</t>
+  </si>
+  <si>
+    <t>threeYearsPlan</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>责任状签署</t>
+  </si>
+  <si>
+    <t>responsibilitySign</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>标准化自评</t>
+  </si>
+  <si>
+    <t>standardization</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>安全文化建设</t>
+  </si>
+  <si>
+    <t>securityBuild</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>安全生产月</t>
+  </si>
+  <si>
+    <t>securityMonth</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>各种安全活动</t>
+  </si>
+  <si>
+    <t>securityActivity</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>hiddenDangerCheck2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>风险辨识管控</t>
+  </si>
+  <si>
+    <t>riskControl</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>应急预案备案</t>
+  </si>
+  <si>
+    <t>emergencyPlanBak</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>事故记录及处理</t>
+  </si>
+  <si>
+    <t>accidentRecord</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>四不放过记录</t>
+  </si>
+  <si>
+    <t>fourRecord</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +714,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -218,33 +909,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFDDDDDD"/>
+      <color rgb="00DDDDDD"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -529,252 +1506,1219 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>12</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>17</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>20</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>23</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>26</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>70</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>40</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>50</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>40</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42">
+        <v>60</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>70</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>20</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46">
+        <v>30</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>20</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="175">
   <si>
     <t>id</t>
   </si>
@@ -148,6 +149,387 @@
     <t>2</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>管理组织架构</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>企业人员资料</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>法律法规政策</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>安全制度规章</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>企业发文通知</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>企业架构设置</t>
+  </si>
+  <si>
+    <t>structureSet</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>岗位设置任命</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>集体机构任命</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>基层岗位类别</t>
+  </si>
+  <si>
+    <t>positionCategory</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>岗位人员档案</t>
+  </si>
+  <si>
+    <t>positionArchives</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>类别人员档案</t>
+  </si>
+  <si>
+    <t>categoryArchives</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>所有资质展示</t>
+  </si>
+  <si>
+    <t>qualificationsShow</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>运营设备档案</t>
+  </si>
+  <si>
+    <t>operateArchives</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>安全设备档案</t>
+  </si>
+  <si>
+    <t>securityArchives</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>应急设备档案</t>
+  </si>
+  <si>
+    <t>emergencyArchives</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>特种设备档案</t>
+  </si>
+  <si>
+    <t>specialArchives</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>其他设备档案</t>
+  </si>
+  <si>
+    <t>otherArchives</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>安全投入台账</t>
+  </si>
+  <si>
+    <t>safetyAccount</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>GPS监控台账</t>
+  </si>
+  <si>
+    <t>GPSAccount</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>安全会议台账</t>
+  </si>
+  <si>
+    <t>safetyMeetingAccount</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>宣传教育培训</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>日常安全检查</t>
+  </si>
+  <si>
+    <t>securityCheck</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>安全隐患排查</t>
+  </si>
+  <si>
+    <t>hiddenDangerCheck</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>责任制考核</t>
+  </si>
+  <si>
+    <t>examination</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>安全责任考核</t>
+  </si>
+  <si>
+    <t>securityExamination</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>安全目标考核</t>
+  </si>
+  <si>
+    <t>goalExamination</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>应急预案演练</t>
+  </si>
+  <si>
+    <t>emergencyPlanDrill</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>职业健康记录</t>
+  </si>
+  <si>
+    <t>healthyRecord</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>三年行动计划</t>
+  </si>
+  <si>
+    <t>threeYearsPlan</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>责任状签署</t>
+  </si>
+  <si>
+    <t>responsibilitySign</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>标准化自评</t>
+  </si>
+  <si>
+    <t>standardization</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>安全文化建设</t>
+  </si>
+  <si>
+    <t>securityBuild</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>安全生产月</t>
+  </si>
+  <si>
+    <t>securityMonth</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>各种安全活动</t>
+  </si>
+  <si>
+    <t>securityActivity</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>hiddenDangerCheck2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>风险辨识管控</t>
+  </si>
+  <si>
+    <t>riskControl</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>应急预案备案</t>
+  </si>
+  <si>
+    <t>emergencyPlanBak</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>事故记录及处理</t>
+  </si>
+  <si>
+    <t>accidentRecord</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>四不放过记录</t>
+  </si>
+  <si>
+    <t>fourRecord</t>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
@@ -157,385 +539,7 @@
     <t>certificate</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>管理组织架构</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>企业人员资料</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>法律法规政策</t>
-  </si>
-  <si>
-    <t>law</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>安全制度规章</t>
-  </si>
-  <si>
-    <t>rules</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>企业发文通知</t>
-  </si>
-  <si>
-    <t>notification</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>企业架构设置</t>
-  </si>
-  <si>
-    <t>structureSet</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>岗位设置任命</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>集体机构任命</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>基层岗位类别</t>
-  </si>
-  <si>
-    <t>positionCategory</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>岗位人员档案</t>
-  </si>
-  <si>
-    <t>positionArchives</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>类别人员档案</t>
-  </si>
-  <si>
-    <t>categoryArchives</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>所有资质展示</t>
-  </si>
-  <si>
-    <t>qualificationsShow</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>运营设备档案</t>
-  </si>
-  <si>
-    <t>operateArchives</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>安全设备档案</t>
-  </si>
-  <si>
-    <t>securityArchives</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>应急设备档案</t>
-  </si>
-  <si>
-    <t>emergencyArchives</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>特种设备档案</t>
-  </si>
-  <si>
-    <t>specialArchives</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>其他设备档案</t>
-  </si>
-  <si>
-    <t>otherArchives</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>安全投入台账</t>
-  </si>
-  <si>
-    <t>safetyAccount</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>GPS监控台账</t>
-  </si>
-  <si>
-    <t>GPSAccount</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>安全会议台账</t>
-  </si>
-  <si>
-    <t>safetyMeetingAccount</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>宣传教育培训</t>
-  </si>
-  <si>
-    <t>training</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>日常安全检查</t>
-  </si>
-  <si>
-    <t>securityCheck</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>安全隐患排查</t>
-  </si>
-  <si>
-    <t>hiddenDangerCheck</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>责任制考核</t>
-  </si>
-  <si>
-    <t>examination</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>安全责任考核</t>
-  </si>
-  <si>
-    <t>securityExamination</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>安全目标考核</t>
-  </si>
-  <si>
-    <t>goalExamination</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>应急预案演练</t>
-  </si>
-  <si>
-    <t>emergencyPlanDrill</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>职业健康记录</t>
-  </si>
-  <si>
-    <t>healthyRecord</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>三年行动计划</t>
-  </si>
-  <si>
-    <t>threeYearsPlan</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>责任状签署</t>
-  </si>
-  <si>
-    <t>responsibilitySign</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>标准化自评</t>
-  </si>
-  <si>
-    <t>standardization</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>安全文化建设</t>
-  </si>
-  <si>
-    <t>securityBuild</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>安全生产月</t>
-  </si>
-  <si>
-    <t>securityMonth</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>各种安全活动</t>
-  </si>
-  <si>
-    <t>securityActivity</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>hiddenDangerCheck2</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>风险辨识管控</t>
-  </si>
-  <si>
-    <t>riskControl</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>应急预案备案</t>
-  </si>
-  <si>
-    <t>emergencyPlanBak</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>事故记录及处理</t>
-  </si>
-  <si>
-    <t>accidentRecord</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>四不放过记录</t>
-  </si>
-  <si>
-    <t>fourRecord</t>
+    <t>合并到企业简要介绍</t>
   </si>
 </sst>
 </file>
@@ -544,12 +548,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -564,9 +576,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,50 +593,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,21 +614,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -687,21 +692,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,6 +722,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -722,12 +740,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -746,31 +842,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,121 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,6 +925,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -921,15 +972,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,39 +1003,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1007,16 +1016,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1025,16 +1043,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,121 +1061,124 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1512,10 +1533,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1528,40 +1549,40 @@
     <col min="8" max="8" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -1570,7 +1591,7 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G2">
@@ -1579,15 +1600,15 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
@@ -1596,21 +1617,21 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
@@ -1619,21 +1640,21 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
@@ -1642,21 +1663,21 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G5">
         <v>40</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -1665,7 +1686,7 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G6">
@@ -1674,15 +1695,15 @@
       <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
@@ -1691,21 +1712,21 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
@@ -1714,21 +1735,21 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G8">
         <v>70</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
@@ -1737,21 +1758,21 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G9">
         <v>80</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B10" t="s">
@@ -1760,21 +1781,21 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B11" t="s">
@@ -1783,21 +1804,21 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
@@ -1806,21 +1827,21 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G12">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B13" t="s">
@@ -1829,21 +1850,21 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G13">
-        <v>30</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B14" t="s">
@@ -1852,44 +1873,44 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G14">
-        <v>40</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B16" t="s">
@@ -1898,21 +1919,21 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G16">
-        <v>20</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B17" t="s">
@@ -1921,44 +1942,44 @@
       <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G17">
-        <v>30</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B19" t="s">
@@ -1967,21 +1988,21 @@
       <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G19">
-        <v>20</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B20" t="s">
@@ -1990,21 +2011,21 @@
       <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G20">
-        <v>30</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B21" t="s">
@@ -2013,44 +2034,44 @@
       <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G21">
-        <v>40</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
@@ -2059,21 +2080,21 @@
       <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G23">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B24" t="s">
@@ -2082,44 +2103,44 @@
       <c r="D24" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G24">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>79</v>
+        <v>10</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B26" t="s">
@@ -2128,21 +2149,21 @@
       <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G26">
-        <v>20</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>89</v>
+        <v>30</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B27" t="s">
@@ -2151,21 +2172,21 @@
       <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G27">
-        <v>30</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>89</v>
+        <v>40</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B28" t="s">
@@ -2174,21 +2195,21 @@
       <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G28">
-        <v>40</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B29" t="s">
@@ -2197,44 +2218,44 @@
       <c r="D29" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G29">
-        <v>50</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30">
-        <v>10</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B31" t="s">
@@ -2243,44 +2264,44 @@
       <c r="D31" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
         <v>20</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="2" t="s">
+      <c r="I32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32">
-        <v>10</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B33" t="s">
@@ -2289,21 +2310,21 @@
       <c r="D33" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G33">
-        <v>20</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B34" t="s">
@@ -2312,44 +2333,44 @@
       <c r="D34" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G34">
-        <v>30</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35">
-        <v>10</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B36" t="s">
@@ -2358,44 +2379,44 @@
       <c r="D36" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
         <v>20</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="2" t="s">
+      <c r="I37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B38" t="s">
@@ -2404,21 +2425,21 @@
       <c r="D38" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G38">
-        <v>20</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>129</v>
+        <v>30</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B39" t="s">
@@ -2427,21 +2448,21 @@
       <c r="D39" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G39">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>129</v>
+        <v>40</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B40" t="s">
@@ -2450,21 +2471,21 @@
       <c r="D40" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G40">
-        <v>40</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>129</v>
+        <v>50</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B41" t="s">
@@ -2473,21 +2494,21 @@
       <c r="D41" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G41">
-        <v>50</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>129</v>
+        <v>60</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B42" t="s">
@@ -2496,21 +2517,21 @@
       <c r="D42" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G42">
-        <v>60</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>129</v>
+        <v>70</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B43" t="s">
@@ -2519,44 +2540,44 @@
       <c r="D43" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G43">
-        <v>70</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B44" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44">
-        <v>10</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B45" t="s">
@@ -2565,67 +2586,67 @@
       <c r="D45" t="s">
         <v>154</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47">
         <v>20</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="I47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47">
-        <v>10</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B48" t="s">
@@ -2634,21 +2655,21 @@
       <c r="D48" t="s">
         <v>163</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G48">
-        <v>20</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>160</v>
+        <v>30</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B49" t="s">
@@ -2657,63 +2678,40 @@
       <c r="D49" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G49">
-        <v>30</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B50" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" t="s">
-        <v>169</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50">
-        <v>10</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" t="s">
-        <v>173</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51">
-        <v>20</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2721,4 +2719,53 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="11" max="11" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="178">
   <si>
     <t>id</t>
   </si>
@@ -528,6 +528,15 @@
   </si>
   <si>
     <t>fourRecord</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>模板管理</t>
+  </si>
+  <si>
+    <t>template</t>
   </si>
   <si>
     <t>110</t>
@@ -547,10 +556,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -569,15 +578,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,6 +596,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,37 +647,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,16 +676,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,7 +702,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,14 +721,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -734,49 +743,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,108 +917,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -897,24 +924,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,80 +934,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1021,6 +956,80 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1031,10 +1040,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,16 +1052,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1061,122 +1070,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1533,10 +1541,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1549,40 +1557,40 @@
     <col min="8" max="8" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -1591,7 +1599,7 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2">
@@ -1600,15 +1608,15 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
@@ -1617,21 +1625,21 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
@@ -1640,21 +1648,21 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
@@ -1663,21 +1671,21 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G5">
         <v>40</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -1686,7 +1694,7 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G6">
@@ -1695,15 +1703,15 @@
       <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
@@ -1712,21 +1720,21 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
@@ -1735,21 +1743,21 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G8">
         <v>70</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
@@ -1758,21 +1766,21 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G9">
         <v>80</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B10" t="s">
@@ -1781,21 +1789,21 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B11" t="s">
@@ -1804,21 +1812,21 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
@@ -1827,21 +1835,21 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G12">
         <v>30</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B13" t="s">
@@ -1850,21 +1858,21 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G13">
         <v>40</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="I13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B14" t="s">
@@ -1873,21 +1881,21 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B15" t="s">
@@ -1896,21 +1904,21 @@
       <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G15">
         <v>20</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="I15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B16" t="s">
@@ -1919,21 +1927,21 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G16">
         <v>30</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="I16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B17" t="s">
@@ -1942,21 +1950,21 @@
       <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B18" t="s">
@@ -1965,21 +1973,21 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G18">
         <v>20</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B19" t="s">
@@ -1988,21 +1996,21 @@
       <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="I19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B20" t="s">
@@ -2011,21 +2019,21 @@
       <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G20">
         <v>40</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="I20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B21" t="s">
@@ -2034,21 +2042,21 @@
       <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="5" t="s">
+      <c r="I21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B22" t="s">
@@ -2057,21 +2065,21 @@
       <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="I22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
@@ -2080,21 +2088,21 @@
       <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G23">
         <v>30</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="5" t="s">
+      <c r="I23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B24" t="s">
@@ -2103,21 +2111,21 @@
       <c r="D24" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="I24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B25" t="s">
@@ -2126,21 +2134,21 @@
       <c r="D25" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G25">
         <v>20</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B26" t="s">
@@ -2149,21 +2157,21 @@
       <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G26">
         <v>30</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="I26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B27" t="s">
@@ -2172,21 +2180,21 @@
       <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G27">
         <v>40</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="5" t="s">
+      <c r="I27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B28" t="s">
@@ -2195,21 +2203,21 @@
       <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G28">
         <v>50</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="5" t="s">
+      <c r="I28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B29" t="s">
@@ -2218,21 +2226,21 @@
       <c r="D29" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G29">
         <v>10</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="5" t="s">
+      <c r="I29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B30" t="s">
@@ -2241,21 +2249,21 @@
       <c r="D30" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G30">
         <v>20</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="5" t="s">
+      <c r="I30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B31" t="s">
@@ -2264,21 +2272,21 @@
       <c r="D31" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G31">
         <v>10</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="5" t="s">
+      <c r="I31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B32" t="s">
@@ -2287,21 +2295,21 @@
       <c r="D32" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G32">
         <v>20</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="I32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B33" t="s">
@@ -2310,21 +2318,21 @@
       <c r="D33" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G33">
         <v>30</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="5" t="s">
+      <c r="I33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B34" t="s">
@@ -2333,21 +2341,21 @@
       <c r="D34" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G34">
         <v>10</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="5" t="s">
+      <c r="I34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B35" t="s">
@@ -2356,21 +2364,21 @@
       <c r="D35" t="s">
         <v>122</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G35">
         <v>20</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="5" t="s">
+      <c r="I35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B36" t="s">
@@ -2379,21 +2387,21 @@
       <c r="D36" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G36">
         <v>10</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="5" t="s">
+      <c r="I36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B37" t="s">
@@ -2402,21 +2410,21 @@
       <c r="D37" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G37">
         <v>20</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="5" t="s">
+      <c r="I37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B38" t="s">
@@ -2425,21 +2433,21 @@
       <c r="D38" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G38">
         <v>30</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="5" t="s">
+      <c r="I38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B39" t="s">
@@ -2448,21 +2456,21 @@
       <c r="D39" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G39">
         <v>40</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="5" t="s">
+      <c r="I39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B40" t="s">
@@ -2471,21 +2479,21 @@
       <c r="D40" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G40">
         <v>50</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="5" t="s">
+      <c r="I40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B41" t="s">
@@ -2494,21 +2502,21 @@
       <c r="D41" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G41">
         <v>60</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="5" t="s">
+      <c r="I41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B42" t="s">
@@ -2517,21 +2525,21 @@
       <c r="D42" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G42">
         <v>70</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="5" t="s">
+      <c r="I42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B43" t="s">
@@ -2540,21 +2548,21 @@
       <c r="D43" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G43">
         <v>10</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="5" t="s">
+      <c r="I43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B44" t="s">
@@ -2563,21 +2571,21 @@
       <c r="D44" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G44">
         <v>20</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="5" t="s">
+      <c r="I44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B45" t="s">
@@ -2586,21 +2594,21 @@
       <c r="D45" t="s">
         <v>154</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G45">
         <v>30</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" s="5" t="s">
+      <c r="I45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B46" t="s">
@@ -2609,21 +2617,21 @@
       <c r="D46" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G46">
         <v>10</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="5" t="s">
+      <c r="I46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B47" t="s">
@@ -2632,21 +2640,21 @@
       <c r="D47" t="s">
         <v>160</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G47">
         <v>20</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="5" t="s">
+      <c r="I47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B48" t="s">
@@ -2655,21 +2663,21 @@
       <c r="D48" t="s">
         <v>163</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G48">
         <v>30</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="5" t="s">
+      <c r="I48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>164</v>
       </c>
       <c r="B49" t="s">
@@ -2678,21 +2686,21 @@
       <c r="D49" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G49">
         <v>10</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="5" t="s">
+      <c r="I49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B50" t="s">
@@ -2701,17 +2709,40 @@
       <c r="D50" t="s">
         <v>170</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G50">
         <v>20</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="5" t="s">
+      <c r="I50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>90</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2737,31 +2768,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>20</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>174</v>
+      <c r="K1" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="200">
   <si>
     <t>id</t>
   </si>
@@ -533,10 +533,76 @@
     <t>150</t>
   </si>
   <si>
-    <t>模板管理</t>
-  </si>
-  <si>
-    <t>template</t>
+    <t>安全规章制度</t>
+  </si>
+  <si>
+    <t>rulesTemplate</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>安全检查</t>
+  </si>
+  <si>
+    <t>securityCheckTemplate</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>设备点检</t>
+  </si>
+  <si>
+    <t>deviceCheckTemplate</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>隐患排查</t>
+  </si>
+  <si>
+    <t>hiddenDangerCheckTemplate</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>风险排查</t>
+  </si>
+  <si>
+    <t>riskCheckTemplate</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>会议</t>
+  </si>
+  <si>
+    <t>meetingTemplate</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>培训</t>
+  </si>
+  <si>
+    <t>trainingTemplate</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>责任书</t>
+  </si>
+  <si>
+    <t>responsibilityTemplate</t>
   </si>
   <si>
     <t>110</t>
@@ -556,10 +622,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -578,24 +644,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,13 +718,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -661,26 +726,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -700,16 +758,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,6 +771,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -743,6 +809,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -755,19 +899,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +929,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,133 +983,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,16 +1003,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -957,21 +1023,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,28 +1051,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,16 +1074,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,19 +1118,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1073,112 +1139,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1541,17 +1607,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="28.75" customWidth="1"/>
@@ -2736,13 +2802,174 @@
         <v>13</v>
       </c>
       <c r="G51">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>13</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>20</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54">
+        <v>40</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55">
+        <v>50</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56">
+        <v>60</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" t="s">
+        <v>192</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <v>70</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" t="s">
+        <v>195</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58">
+        <v>80</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2768,14 +2995,14 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
@@ -2792,7 +3019,7 @@
         <v>43</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="203">
   <si>
     <t>id</t>
   </si>
@@ -563,12 +563,6 @@
     <t>153</t>
   </si>
   <si>
-    <t>隐患排查</t>
-  </si>
-  <si>
-    <t>hiddenDangerCheckTemplate</t>
-  </si>
-  <si>
     <t>154</t>
   </si>
   <si>
@@ -615,19 +609,32 @@
   </si>
   <si>
     <t>合并到企业简要介绍</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>罐式车辆检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险货物自查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dangerGoodsCheckTemplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tankVehicleTemplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,151 +651,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,7 +666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.5"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,194 +676,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1002,253 +685,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1257,61 +698,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00DDDDDD"/>
+      <color rgb="FFDDDDDD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1601,21 +995,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
@@ -1623,7 +1017,7 @@
     <col min="8" max="8" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1681,7 +1075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1704,7 +1098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1727,7 +1121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1750,7 +1144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1776,7 +1170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1799,7 +1193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1822,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -1845,7 +1239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -1868,7 +1262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1891,7 +1285,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -1914,7 +1308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -1937,7 +1331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -1960,7 +1354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -1983,7 +1377,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
@@ -2006,7 +1400,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>60</v>
       </c>
@@ -2029,7 +1423,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
@@ -2052,7 +1446,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
@@ -2075,7 +1469,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
@@ -2098,7 +1492,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
@@ -2121,7 +1515,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>77</v>
       </c>
@@ -2144,7 +1538,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>80</v>
       </c>
@@ -2167,7 +1561,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>83</v>
       </c>
@@ -2190,7 +1584,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>87</v>
       </c>
@@ -2213,7 +1607,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
@@ -2236,7 +1630,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
@@ -2259,7 +1653,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>96</v>
       </c>
@@ -2282,7 +1676,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>99</v>
       </c>
@@ -2305,7 +1699,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>103</v>
       </c>
@@ -2328,7 +1722,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
@@ -2351,7 +1745,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>110</v>
       </c>
@@ -2374,7 +1768,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>113</v>
       </c>
@@ -2397,7 +1791,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>116</v>
       </c>
@@ -2420,7 +1814,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>120</v>
       </c>
@@ -2443,7 +1837,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>123</v>
       </c>
@@ -2466,7 +1860,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>127</v>
       </c>
@@ -2489,7 +1883,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>130</v>
       </c>
@@ -2512,7 +1906,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>133</v>
       </c>
@@ -2535,7 +1929,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>136</v>
       </c>
@@ -2558,7 +1952,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>139</v>
       </c>
@@ -2581,7 +1975,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>142</v>
       </c>
@@ -2604,7 +1998,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>145</v>
       </c>
@@ -2627,7 +2021,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>149</v>
       </c>
@@ -2650,7 +2044,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>152</v>
       </c>
@@ -2673,7 +2067,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>155</v>
       </c>
@@ -2696,7 +2090,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>158</v>
       </c>
@@ -2719,7 +2113,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>161</v>
       </c>
@@ -2742,7 +2136,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>164</v>
       </c>
@@ -2765,7 +2159,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>168</v>
       </c>
@@ -2788,7 +2182,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>171</v>
       </c>
@@ -2811,7 +2205,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>175</v>
       </c>
@@ -2834,7 +2228,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>178</v>
       </c>
@@ -2857,15 +2251,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>13</v>
@@ -2880,15 +2274,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" t="s">
         <v>184</v>
-      </c>
-      <c r="B55" t="s">
-        <v>185</v>
-      </c>
-      <c r="D55" t="s">
-        <v>186</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>13</v>
@@ -2903,15 +2297,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" t="s">
         <v>187</v>
-      </c>
-      <c r="B56" t="s">
-        <v>188</v>
-      </c>
-      <c r="D56" t="s">
-        <v>189</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>13</v>
@@ -2926,15 +2320,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" t="s">
         <v>190</v>
-      </c>
-      <c r="B57" t="s">
-        <v>191</v>
-      </c>
-      <c r="D57" t="s">
-        <v>192</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>13</v>
@@ -2949,15 +2343,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" t="s">
         <v>193</v>
-      </c>
-      <c r="B58" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" t="s">
-        <v>195</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>13</v>
@@ -2972,37 +2366,59 @@
         <v>174</v>
       </c>
     </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59">
+        <v>41</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="11" max="11" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
@@ -3019,11 +2435,11 @@
         <v>43</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="200">
   <si>
     <t>id</t>
   </si>
@@ -482,159 +482,152 @@
     <t>securityActivity</t>
   </si>
   <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>风险辨识管控</t>
+  </si>
+  <si>
+    <t>riskControl</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>应急预案备案</t>
+  </si>
+  <si>
+    <t>emergencyPlanBak</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>事故记录及处理</t>
+  </si>
+  <si>
+    <t>accidentRecord</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>四不放过记录</t>
+  </si>
+  <si>
+    <t>fourRecord</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>安全规章制度</t>
+  </si>
+  <si>
+    <t>rulesTemplate</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>安全检查</t>
+  </si>
+  <si>
+    <t>securityCheckTemplate</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>设备点检</t>
+  </si>
+  <si>
+    <t>deviceCheckTemplate</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>罐式车辆检查</t>
+  </si>
+  <si>
+    <t>tankVehicleTemplate</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>风险排查</t>
+  </si>
+  <si>
+    <t>riskCheckTemplate</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>会议</t>
+  </si>
+  <si>
+    <t>meetingTemplate</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>培训</t>
+  </si>
+  <si>
+    <t>trainingTemplate</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>责任书</t>
+  </si>
+  <si>
+    <t>responsibilityTemplate</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>危险货物自查</t>
+  </si>
+  <si>
+    <t>dangerGoodsCheckTemplate</t>
+  </si>
+  <si>
+    <t>合并到企业简要介绍</t>
+  </si>
+  <si>
     <t>145</t>
   </si>
   <si>
     <t>hiddenDangerCheck2</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>风险辨识管控</t>
-  </si>
-  <si>
-    <t>riskControl</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>应急预案备案</t>
-  </si>
-  <si>
-    <t>emergencyPlanBak</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>事故记录及处理</t>
-  </si>
-  <si>
-    <t>accidentRecord</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>四不放过记录</t>
-  </si>
-  <si>
-    <t>fourRecord</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>安全规章制度</t>
-  </si>
-  <si>
-    <t>rulesTemplate</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>安全检查</t>
-  </si>
-  <si>
-    <t>securityCheckTemplate</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>设备点检</t>
-  </si>
-  <si>
-    <t>deviceCheckTemplate</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>风险排查</t>
-  </si>
-  <si>
-    <t>riskCheckTemplate</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>会议</t>
-  </si>
-  <si>
-    <t>meetingTemplate</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>培训</t>
-  </si>
-  <si>
-    <t>trainingTemplate</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>责任书</t>
-  </si>
-  <si>
-    <t>responsibilityTemplate</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>企业资质证书</t>
-  </si>
-  <si>
-    <t>certificate</t>
-  </si>
-  <si>
-    <t>合并到企业简要介绍</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>罐式车辆检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>危险货物自查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dangerGoodsCheckTemplate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tankVehicleTemplate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,18 +644,162 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -672,12 +809,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -685,27 +1002,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFDDDDDD"/>
+      <color rgb="00DDDDDD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -995,21 +1603,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A46" sqref="$A46:$XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
@@ -1017,40 +1625,40 @@
     <col min="8" max="8" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -1059,7 +1667,7 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G2">
@@ -1068,15 +1676,15 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
@@ -1085,21 +1693,21 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
@@ -1108,21 +1716,21 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
@@ -1131,21 +1739,21 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G5">
         <v>40</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -1154,7 +1762,7 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G6">
@@ -1163,15 +1771,15 @@
       <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
@@ -1180,21 +1788,21 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
@@ -1203,21 +1811,21 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G8">
         <v>70</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
@@ -1226,21 +1834,21 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G9">
         <v>80</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B10" t="s">
@@ -1249,21 +1857,21 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B11" t="s">
@@ -1272,21 +1880,21 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
@@ -1295,21 +1903,21 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G12">
         <v>30</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B13" t="s">
@@ -1318,21 +1926,21 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G13">
         <v>40</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="I13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B14" t="s">
@@ -1341,21 +1949,21 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B15" t="s">
@@ -1364,21 +1972,21 @@
       <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G15">
         <v>20</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B16" t="s">
@@ -1387,21 +1995,21 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G16">
         <v>30</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="I16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B17" t="s">
@@ -1410,21 +2018,21 @@
       <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="4" t="s">
+      <c r="I17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B18" t="s">
@@ -1433,21 +2041,21 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G18">
         <v>20</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="I18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B19" t="s">
@@ -1456,21 +2064,21 @@
       <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="I19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B20" t="s">
@@ -1479,21 +2087,21 @@
       <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G20">
         <v>40</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B21" t="s">
@@ -1502,21 +2110,21 @@
       <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="4" t="s">
+      <c r="I21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B22" t="s">
@@ -1525,21 +2133,21 @@
       <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="I22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
@@ -1548,21 +2156,21 @@
       <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G23">
         <v>30</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="4" t="s">
+      <c r="I23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B24" t="s">
@@ -1571,21 +2179,21 @@
       <c r="D24" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="4" t="s">
+      <c r="I24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B25" t="s">
@@ -1594,21 +2202,21 @@
       <c r="D25" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G25">
         <v>20</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="I25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B26" t="s">
@@ -1617,21 +2225,21 @@
       <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G26">
         <v>30</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="4" t="s">
+      <c r="I26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B27" t="s">
@@ -1640,21 +2248,21 @@
       <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G27">
         <v>40</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="4" t="s">
+      <c r="I27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B28" t="s">
@@ -1663,21 +2271,21 @@
       <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G28">
         <v>50</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="4" t="s">
+      <c r="I28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B29" t="s">
@@ -1686,21 +2294,21 @@
       <c r="D29" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G29">
         <v>10</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="4" t="s">
+      <c r="I29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B30" t="s">
@@ -1709,21 +2317,21 @@
       <c r="D30" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G30">
         <v>20</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="4" t="s">
+      <c r="I30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B31" t="s">
@@ -1732,21 +2340,21 @@
       <c r="D31" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G31">
         <v>10</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="4" t="s">
+      <c r="I31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B32" t="s">
@@ -1755,21 +2363,21 @@
       <c r="D32" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G32">
         <v>20</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="I32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B33" t="s">
@@ -1778,21 +2386,21 @@
       <c r="D33" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G33">
         <v>30</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="4" t="s">
+      <c r="I33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B34" t="s">
@@ -1801,21 +2409,21 @@
       <c r="D34" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G34">
         <v>10</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="4" t="s">
+      <c r="I34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B35" t="s">
@@ -1824,21 +2432,21 @@
       <c r="D35" t="s">
         <v>122</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G35">
         <v>20</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="4" t="s">
+      <c r="I35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B36" t="s">
@@ -1847,21 +2455,21 @@
       <c r="D36" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G36">
         <v>10</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="4" t="s">
+      <c r="I36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B37" t="s">
@@ -1870,21 +2478,21 @@
       <c r="D37" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G37">
         <v>20</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="4" t="s">
+      <c r="I37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B38" t="s">
@@ -1893,21 +2501,21 @@
       <c r="D38" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G38">
         <v>30</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="4" t="s">
+      <c r="I38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B39" t="s">
@@ -1916,21 +2524,21 @@
       <c r="D39" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G39">
         <v>40</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="4" t="s">
+      <c r="I39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B40" t="s">
@@ -1939,21 +2547,21 @@
       <c r="D40" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G40">
         <v>50</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="4" t="s">
+      <c r="I40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B41" t="s">
@@ -1962,21 +2570,21 @@
       <c r="D41" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G41">
         <v>60</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="4" t="s">
+      <c r="I41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B42" t="s">
@@ -1985,21 +2593,21 @@
       <c r="D42" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G42">
         <v>70</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="4" t="s">
+      <c r="I42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:10">
+      <c r="A43" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B43" t="s">
@@ -2008,21 +2616,21 @@
       <c r="D43" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G43">
         <v>10</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="4" t="s">
+      <c r="I43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B44" t="s">
@@ -2031,21 +2639,21 @@
       <c r="D44" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G44">
         <v>20</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="4" t="s">
+      <c r="I44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:10">
+      <c r="A45" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B45" t="s">
@@ -2054,392 +2662,1719 @@
       <c r="D45" t="s">
         <v>154</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G45">
         <v>30</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" s="4" t="s">
+      <c r="I45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:10">
+      <c r="A46" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
-      </c>
-      <c r="F46" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47">
+        <v>30</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48">
         <v>10</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" t="s">
-        <v>160</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47">
+      <c r="I48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49">
         <v>20</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" t="s">
-        <v>163</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48">
+      <c r="I49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52">
         <v>30</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B49" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49">
-        <v>10</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B50" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" t="s">
-        <v>170</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50">
-        <v>20</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="I52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D51" t="s">
-        <v>173</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51">
-        <v>10</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" t="s">
-        <v>177</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52">
-        <v>20</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
-        <v>178</v>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>180</v>
-      </c>
-      <c r="F53" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G53">
-        <v>30</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
-        <v>181</v>
+        <v>40</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D54" t="s">
-        <v>202</v>
-      </c>
-      <c r="F54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G54">
-        <v>40</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>182</v>
+        <v>50</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
-      </c>
-      <c r="F55" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G55">
-        <v>50</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
-        <v>185</v>
+        <v>60</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D56" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G56">
-        <v>60</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
-        <v>188</v>
+        <v>70</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="B57" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
-      </c>
-      <c r="F57" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G57">
-        <v>70</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
-        <v>191</v>
+        <v>80</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
-      </c>
-      <c r="F58" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G58">
-        <v>80</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B59" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" t="s">
-        <v>201</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59">
         <v>41</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>174</v>
+      <c r="I58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="11" max="11" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>70</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>40</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>40</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>40</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>60</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42">
+        <v>70</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="3">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" t="s">
+        <v>161</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>20</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54">
+        <v>40</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55">
+        <v>50</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56">
+        <v>60</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <v>70</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58">
+        <v>80</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B59" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="D59" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2">
-        <v>20</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>197</v>
+      <c r="F59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59">
+        <v>41</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="213">
   <si>
     <t>id</t>
   </si>
@@ -341,280 +341,319 @@
     <t>安全会议台账</t>
   </si>
   <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>宣传教育培训</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>日常安全检查</t>
+  </si>
+  <si>
+    <t>securityCheck</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>危险货物自查</t>
+  </si>
+  <si>
+    <t>dangerGoodsCheck</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>罐式车辆检查</t>
+  </si>
+  <si>
+    <t>tankVehicle</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>责任制考核</t>
+  </si>
+  <si>
+    <t>examination</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>安全责任考核</t>
+  </si>
+  <si>
+    <t>securityExamination</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>安全目标考核</t>
+  </si>
+  <si>
+    <t>goalExamination</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>应急预案演练</t>
+  </si>
+  <si>
+    <t>emergencyPlanDrill</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>职业健康记录</t>
+  </si>
+  <si>
+    <t>healthyRecord</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>三年行动计划</t>
+  </si>
+  <si>
+    <t>threeYearsPlan</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>责任状签署</t>
+  </si>
+  <si>
+    <t>responsibilitySign</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>标准化自评</t>
+  </si>
+  <si>
+    <t>standardization</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>安全文化建设</t>
+  </si>
+  <si>
+    <t>securityBuild</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>安全生产月</t>
+  </si>
+  <si>
+    <t>securityMonth</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>各种安全活动</t>
+  </si>
+  <si>
+    <t>securityActivity</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>风险辨识管控</t>
+  </si>
+  <si>
+    <t>riskControl</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>应急预案备案</t>
+  </si>
+  <si>
+    <t>emergencyPlanBak</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>事故记录及处理</t>
+  </si>
+  <si>
+    <t>accidentRecord</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>四不放过记录</t>
+  </si>
+  <si>
+    <t>fourRecord</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>安全规章制度模板</t>
+  </si>
+  <si>
+    <t>rulesTemplate</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>安全检查模板</t>
+  </si>
+  <si>
+    <t>securityCheckTemplate</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>设备点检模板</t>
+  </si>
+  <si>
+    <t>deviceCheckTemplate</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>罐式车辆检查模板</t>
+  </si>
+  <si>
+    <t>tankVehicleTemplate</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>风险排查模板</t>
+  </si>
+  <si>
+    <t>riskCheckTemplate</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>会议模板</t>
+  </si>
+  <si>
+    <t>meetingTemplate</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>培训模板</t>
+  </si>
+  <si>
+    <t>trainingTemplate</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>责任书模板</t>
+  </si>
+  <si>
+    <t>responsibilityTemplate</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>危险货物自查模板</t>
+  </si>
+  <si>
+    <t>dangerGoodsCheckTemplate</t>
+  </si>
+  <si>
+    <t>合并到企业简要介绍</t>
+  </si>
+  <si>
     <t>safetyMeetingAccount</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>宣传教育培训</t>
-  </si>
-  <si>
-    <t>training</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>日常安全检查</t>
-  </si>
-  <si>
-    <t>securityCheck</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
     <t>安全隐患排查</t>
   </si>
   <si>
     <t>hiddenDangerCheck</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>责任制考核</t>
-  </si>
-  <si>
-    <t>examination</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>安全责任考核</t>
-  </si>
-  <si>
-    <t>securityExamination</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>安全目标考核</t>
-  </si>
-  <si>
-    <t>goalExamination</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>应急预案演练</t>
-  </si>
-  <si>
-    <t>emergencyPlanDrill</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>职业健康记录</t>
-  </si>
-  <si>
-    <t>healthyRecord</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>三年行动计划</t>
-  </si>
-  <si>
-    <t>threeYearsPlan</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>责任状签署</t>
-  </si>
-  <si>
-    <t>responsibilitySign</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>标准化自评</t>
-  </si>
-  <si>
-    <t>standardization</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>安全文化建设</t>
-  </si>
-  <si>
-    <t>securityBuild</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>安全生产月</t>
-  </si>
-  <si>
-    <t>securityMonth</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>各种安全活动</t>
-  </si>
-  <si>
-    <t>securityActivity</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>风险辨识管控</t>
-  </si>
-  <si>
-    <t>riskControl</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>应急预案备案</t>
-  </si>
-  <si>
-    <t>emergencyPlanBak</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>事故记录及处理</t>
-  </si>
-  <si>
-    <t>accidentRecord</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>四不放过记录</t>
-  </si>
-  <si>
-    <t>fourRecord</t>
-  </si>
-  <si>
-    <t>150</t>
+    <t>145</t>
+  </si>
+  <si>
+    <t>hiddenDangerCheck2</t>
   </si>
   <si>
     <t>安全规章制度</t>
   </si>
   <si>
-    <t>rulesTemplate</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>安全检查</t>
   </si>
   <si>
-    <t>securityCheckTemplate</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
     <t>设备点检</t>
   </si>
   <si>
-    <t>deviceCheckTemplate</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>罐式车辆检查</t>
-  </si>
-  <si>
-    <t>tankVehicleTemplate</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
     <t>风险排查</t>
   </si>
   <si>
-    <t>riskCheckTemplate</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
     <t>会议</t>
   </si>
   <si>
-    <t>meetingTemplate</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
     <t>培训</t>
   </si>
   <si>
-    <t>trainingTemplate</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
     <t>责任书</t>
-  </si>
-  <si>
-    <t>responsibilityTemplate</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>危险货物自查</t>
-  </si>
-  <si>
-    <t>dangerGoodsCheckTemplate</t>
-  </si>
-  <si>
-    <t>合并到企业简要介绍</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>hiddenDangerCheck2</t>
   </si>
 </sst>
 </file>
@@ -622,10 +661,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -645,29 +684,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,15 +697,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,8 +735,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,15 +752,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,11 +797,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,40 +813,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,13 +848,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,55 +944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +962,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,37 +998,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,49 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,6 +1039,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1050,9 +1098,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,28 +1134,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,10 +1145,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,143 +1157,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -1609,10 +1647,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A46" sqref="$A46:$XFD46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1658,7 +1696,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -1667,7 +1705,7 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2">
@@ -1676,15 +1714,15 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
@@ -1693,21 +1731,21 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
@@ -1716,21 +1754,21 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
@@ -1739,21 +1777,21 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G5">
         <v>40</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -1762,7 +1800,7 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G6">
@@ -1771,15 +1809,15 @@
       <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
@@ -1788,21 +1826,21 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
@@ -1811,21 +1849,21 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G8">
         <v>70</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
@@ -1834,21 +1872,21 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G9">
         <v>80</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B10" t="s">
@@ -1857,21 +1895,21 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B11" t="s">
@@ -1880,21 +1918,21 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
@@ -1903,21 +1941,21 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G12">
         <v>30</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B13" t="s">
@@ -1926,21 +1964,21 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G13">
         <v>40</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="I13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B14" t="s">
@@ -1949,21 +1987,21 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B15" t="s">
@@ -1972,21 +2010,21 @@
       <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G15">
         <v>20</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="I15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B16" t="s">
@@ -1995,21 +2033,21 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G16">
         <v>30</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="I16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B17" t="s">
@@ -2018,21 +2056,21 @@
       <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B18" t="s">
@@ -2041,21 +2079,21 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G18">
         <v>20</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B19" t="s">
@@ -2064,21 +2102,21 @@
       <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="I19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B20" t="s">
@@ -2087,21 +2125,21 @@
       <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G20">
         <v>40</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="I20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B21" t="s">
@@ -2110,21 +2148,21 @@
       <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="5" t="s">
+      <c r="I21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B22" t="s">
@@ -2133,21 +2171,21 @@
       <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="I22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
@@ -2156,21 +2194,21 @@
       <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G23">
         <v>30</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="5" t="s">
+      <c r="I23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B24" t="s">
@@ -2179,21 +2217,21 @@
       <c r="D24" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="I24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B25" t="s">
@@ -2202,21 +2240,21 @@
       <c r="D25" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G25">
         <v>20</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B26" t="s">
@@ -2225,21 +2263,21 @@
       <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G26">
         <v>30</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="I26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B27" t="s">
@@ -2248,21 +2286,21 @@
       <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G27">
         <v>40</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="5" t="s">
+      <c r="I27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B28" t="s">
@@ -2271,21 +2309,21 @@
       <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G28">
         <v>50</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="5" t="s">
+      <c r="I28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B29" t="s">
@@ -2294,21 +2332,21 @@
       <c r="D29" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G29">
         <v>10</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="5" t="s">
+      <c r="I29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B30" t="s">
@@ -2317,21 +2355,21 @@
       <c r="D30" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G30">
         <v>20</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="5" t="s">
+      <c r="I30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B31" t="s">
@@ -2340,21 +2378,21 @@
       <c r="D31" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G31">
         <v>10</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="5" t="s">
+      <c r="I31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B32" t="s">
@@ -2363,21 +2401,21 @@
       <c r="D32" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G32">
         <v>20</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="I32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B33" t="s">
@@ -2386,21 +2424,21 @@
       <c r="D33" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G33">
         <v>30</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="5" t="s">
+      <c r="I33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B34" t="s">
@@ -2409,21 +2447,21 @@
       <c r="D34" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G34">
         <v>10</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="5" t="s">
+      <c r="I34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B35" t="s">
@@ -2432,21 +2470,21 @@
       <c r="D35" t="s">
         <v>122</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G35">
         <v>20</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="5" t="s">
+      <c r="I35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B36" t="s">
@@ -2455,44 +2493,44 @@
       <c r="D36" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G36">
+        <v>30</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
         <v>10</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="I37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37">
-        <v>20</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B38" t="s">
@@ -2501,21 +2539,21 @@
       <c r="D38" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G38">
-        <v>30</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>126</v>
+        <v>20</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B39" t="s">
@@ -2524,21 +2562,21 @@
       <c r="D39" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G39">
-        <v>40</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>126</v>
+        <v>30</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B40" t="s">
@@ -2547,21 +2585,21 @@
       <c r="D40" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G40">
-        <v>50</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>126</v>
+        <v>40</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B41" t="s">
@@ -2570,21 +2608,21 @@
       <c r="D41" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G41">
-        <v>60</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>126</v>
+        <v>50</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B42" t="s">
@@ -2593,21 +2631,21 @@
       <c r="D42" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G42">
-        <v>70</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>126</v>
+        <v>60</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B43" t="s">
@@ -2616,44 +2654,44 @@
       <c r="D43" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G43">
+        <v>70</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
         <v>10</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="I44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44">
-        <v>20</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B45" t="s">
@@ -2662,21 +2700,21 @@
       <c r="D45" t="s">
         <v>154</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G45">
-        <v>30</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>148</v>
+        <v>20</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B46" t="s">
@@ -2685,44 +2723,44 @@
       <c r="D46" t="s">
         <v>157</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G46">
+        <v>30</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47">
         <v>20</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="I47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47">
-        <v>30</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B48" t="s">
@@ -2731,44 +2769,44 @@
       <c r="D48" t="s">
         <v>164</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49">
         <v>10</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B49" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="I49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49">
-        <v>20</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B50" t="s">
@@ -2777,44 +2815,44 @@
       <c r="D50" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51">
         <v>10</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="I51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51">
-        <v>20</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>176</v>
       </c>
       <c r="B52" t="s">
@@ -2823,21 +2861,21 @@
       <c r="D52" t="s">
         <v>178</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G52">
-        <v>30</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>172</v>
+        <v>20</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B53" t="s">
@@ -2846,21 +2884,21 @@
       <c r="D53" t="s">
         <v>181</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G53">
-        <v>40</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>172</v>
+        <v>30</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B54" t="s">
@@ -2869,21 +2907,21 @@
       <c r="D54" t="s">
         <v>184</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G54">
-        <v>50</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>172</v>
+        <v>40</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B55" t="s">
@@ -2892,21 +2930,21 @@
       <c r="D55" t="s">
         <v>187</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G55">
-        <v>60</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>172</v>
+        <v>50</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B56" t="s">
@@ -2915,21 +2953,21 @@
       <c r="D56" t="s">
         <v>190</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G56">
-        <v>70</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>172</v>
+        <v>60</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B57" t="s">
@@ -2938,21 +2976,21 @@
       <c r="D57" t="s">
         <v>193</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G57">
-        <v>80</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>172</v>
+        <v>70</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B58" t="s">
@@ -2961,17 +2999,40 @@
       <c r="D58" t="s">
         <v>196</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G58">
+        <v>80</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59">
         <v>41</v>
       </c>
-      <c r="I58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>172</v>
+      <c r="I59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3026,12 +3087,12 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>197</v>
+      <c r="K1" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -3040,7 +3101,7 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2">
@@ -3049,15 +3110,15 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
@@ -3066,21 +3127,21 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
@@ -3089,21 +3150,21 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
@@ -3112,21 +3173,21 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G5">
         <v>40</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -3135,7 +3196,7 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G6">
@@ -3144,15 +3205,15 @@
       <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
@@ -3161,21 +3222,21 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
@@ -3184,21 +3245,21 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G8">
         <v>70</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
@@ -3207,21 +3268,21 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G9">
         <v>80</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B10" t="s">
@@ -3230,21 +3291,21 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B11" t="s">
@@ -3253,21 +3314,21 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
@@ -3276,21 +3337,21 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G12">
         <v>30</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B13" t="s">
@@ -3299,21 +3360,21 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G13">
         <v>40</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="I13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B14" t="s">
@@ -3322,21 +3383,21 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B15" t="s">
@@ -3345,21 +3406,21 @@
       <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G15">
         <v>20</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="I15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B16" t="s">
@@ -3368,21 +3429,21 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G16">
         <v>30</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="I16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B17" t="s">
@@ -3391,21 +3452,21 @@
       <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B18" t="s">
@@ -3414,21 +3475,21 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G18">
         <v>20</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B19" t="s">
@@ -3437,21 +3498,21 @@
       <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="I19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B20" t="s">
@@ -3460,21 +3521,21 @@
       <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G20">
         <v>40</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="I20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B21" t="s">
@@ -3483,21 +3544,21 @@
       <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="5" t="s">
+      <c r="I21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B22" t="s">
@@ -3506,21 +3567,21 @@
       <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="I22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
@@ -3529,21 +3590,21 @@
       <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G23">
         <v>30</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="5" t="s">
+      <c r="I23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B24" t="s">
@@ -3552,21 +3613,21 @@
       <c r="D24" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="I24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B25" t="s">
@@ -3575,21 +3636,21 @@
       <c r="D25" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G25">
         <v>20</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B26" t="s">
@@ -3598,21 +3659,21 @@
       <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G26">
         <v>30</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="I26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B27" t="s">
@@ -3621,21 +3682,21 @@
       <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G27">
         <v>40</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="5" t="s">
+      <c r="I27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B28" t="s">
@@ -3644,21 +3705,21 @@
       <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G28">
         <v>50</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="5" t="s">
+      <c r="I28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B29" t="s">
@@ -3667,21 +3728,21 @@
       <c r="D29" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G29">
         <v>10</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="5" t="s">
+      <c r="I29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B30" t="s">
@@ -3690,44 +3751,44 @@
       <c r="D30" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G30">
         <v>20</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="5" t="s">
+      <c r="I30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B31" t="s">
         <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G31">
         <v>10</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="5" t="s">
+      <c r="I31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B32" t="s">
@@ -3736,21 +3797,21 @@
       <c r="D32" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G32">
         <v>20</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="I32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B33" t="s">
@@ -3759,618 +3820,618 @@
       <c r="D33" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G33">
         <v>30</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="5" t="s">
+      <c r="I33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="5" t="s">
-        <v>116</v>
+      <c r="A34" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G34">
         <v>10</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="5" t="s">
+      <c r="I34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="5" t="s">
-        <v>120</v>
+      <c r="A35" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G35">
         <v>20</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="5" t="s">
+      <c r="I35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="5" t="s">
-        <v>123</v>
+      <c r="A36" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G36">
         <v>10</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>126</v>
+      <c r="I36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="5" t="s">
-        <v>127</v>
+      <c r="A37" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G37">
         <v>20</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>126</v>
+      <c r="I37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="5" t="s">
-        <v>130</v>
+      <c r="A38" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G38">
         <v>30</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>126</v>
+      <c r="I38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="5" t="s">
-        <v>133</v>
+      <c r="A39" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G39">
         <v>40</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>126</v>
+      <c r="I39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="5" t="s">
-        <v>136</v>
+      <c r="A40" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G40">
         <v>50</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>126</v>
+      <c r="I40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="5" t="s">
-        <v>139</v>
+      <c r="A41" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G41">
         <v>60</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>126</v>
+      <c r="I41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="5" t="s">
-        <v>142</v>
+      <c r="A42" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F42" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G42">
         <v>70</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>126</v>
+      <c r="I42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="5" t="s">
-        <v>145</v>
+      <c r="A43" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G43">
         <v>10</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>148</v>
+      <c r="I43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="5" t="s">
-        <v>149</v>
+      <c r="A44" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G44">
         <v>20</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>148</v>
+      <c r="I44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="5" t="s">
-        <v>152</v>
+      <c r="A45" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
-      </c>
-      <c r="F45" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G45">
         <v>30</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>148</v>
+      <c r="I45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="6" t="s">
-        <v>198</v>
+      <c r="A46" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>202</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="3">
+        <v>205</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1">
         <v>10</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="6" t="s">
+      <c r="H46" s="1"/>
+      <c r="I46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
-      </c>
-      <c r="F47" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G47">
         <v>20</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>158</v>
+      <c r="I47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="5" t="s">
-        <v>159</v>
+      <c r="A48" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G48">
         <v>30</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>158</v>
+      <c r="I48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="5" t="s">
-        <v>162</v>
+      <c r="A49" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
-      </c>
-      <c r="F49" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G49">
         <v>10</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>165</v>
+      <c r="I49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="5" t="s">
-        <v>166</v>
+      <c r="A50" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G50">
         <v>20</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>165</v>
+      <c r="I50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="5" t="s">
-        <v>169</v>
+      <c r="A51" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="D51" t="s">
-        <v>171</v>
-      </c>
-      <c r="F51" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G51">
         <v>10</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>172</v>
+      <c r="I51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="5" t="s">
-        <v>173</v>
+      <c r="A52" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="D52" t="s">
-        <v>175</v>
-      </c>
-      <c r="F52" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G52">
         <v>20</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>172</v>
+      <c r="I52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="5" t="s">
-        <v>176</v>
+      <c r="A53" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>178</v>
-      </c>
-      <c r="F53" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G53">
         <v>30</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>172</v>
+      <c r="I53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="5" t="s">
-        <v>179</v>
+      <c r="A54" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
-      </c>
-      <c r="F54" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G54">
         <v>40</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>172</v>
+      <c r="I54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="5" t="s">
-        <v>182</v>
+      <c r="A55" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
-      </c>
-      <c r="F55" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G55">
         <v>50</v>
       </c>
-      <c r="I55" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>172</v>
+      <c r="I55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="5" t="s">
-        <v>185</v>
+      <c r="A56" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D56" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G56">
         <v>60</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>172</v>
+      <c r="I56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="5" t="s">
-        <v>188</v>
+      <c r="A57" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B57" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
-      </c>
-      <c r="F57" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G57">
         <v>70</v>
       </c>
-      <c r="I57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>172</v>
+      <c r="I57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="5" t="s">
-        <v>191</v>
+      <c r="A58" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
-      </c>
-      <c r="F58" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G58">
         <v>80</v>
       </c>
-      <c r="I58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>172</v>
+      <c r="I58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="5" t="s">
-        <v>194</v>
+      <c r="A59" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="B59" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
-      </c>
-      <c r="F59" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G59">
         <v>41</v>
       </c>
-      <c r="I59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>172</v>
+      <c r="I59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -661,10 +661,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -690,74 +690,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -767,18 +699,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,9 +721,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,7 +737,61 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,7 +805,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,7 +848,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,19 +938,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,31 +992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,103 +1010,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,7 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,6 +1039,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1066,16 +1075,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1098,6 +1107,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1106,49 +1139,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1157,133 +1157,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1650,7 +1650,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:D59"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="215">
   <si>
     <t>id</t>
   </si>
@@ -239,15 +239,375 @@
     <t>120</t>
   </si>
   <si>
+    <t>人员档案</t>
+  </si>
+  <si>
+    <t>empArchives</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>运营设备档案</t>
+  </si>
+  <si>
+    <t>operateArchives</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>安全设备档案</t>
+  </si>
+  <si>
+    <t>securityArchives</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>应急设备档案</t>
+  </si>
+  <si>
+    <t>emergencyArchives</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>特种设备档案</t>
+  </si>
+  <si>
+    <t>specialArchives</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>其他设备档案</t>
+  </si>
+  <si>
+    <t>otherArchives</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>安全投入台账</t>
+  </si>
+  <si>
+    <t>safetyAccount</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>GPS监控台账</t>
+  </si>
+  <si>
+    <t>GPSAccount</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>安全会议台账</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>宣传教育培训</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>日常安全检查</t>
+  </si>
+  <si>
+    <t>securityCheck</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>危险货物自查</t>
+  </si>
+  <si>
+    <t>dangerGoodsCheck</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>罐式车辆检查</t>
+  </si>
+  <si>
+    <t>tankVehicle</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>责任制考核</t>
+  </si>
+  <si>
+    <t>examination</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>安全责任考核</t>
+  </si>
+  <si>
+    <t>securityExamination</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>安全目标考核</t>
+  </si>
+  <si>
+    <t>goalExamination</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>应急预案演练</t>
+  </si>
+  <si>
+    <t>emergencyPlanDrill</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>职业健康记录</t>
+  </si>
+  <si>
+    <t>healthyRecord</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>三年行动计划</t>
+  </si>
+  <si>
+    <t>threeYearsPlan</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>责任状签署</t>
+  </si>
+  <si>
+    <t>responsibilitySign</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>标准化自评</t>
+  </si>
+  <si>
+    <t>standardization</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>安全文化建设</t>
+  </si>
+  <si>
+    <t>securityBuild</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>安全生产月</t>
+  </si>
+  <si>
+    <t>securityMonth</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>各种安全活动</t>
+  </si>
+  <si>
+    <t>securityActivity</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>风险辨识管控</t>
+  </si>
+  <si>
+    <t>riskControl</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>应急预案备案</t>
+  </si>
+  <si>
+    <t>emergencyPlanBak</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>事故记录及处理</t>
+  </si>
+  <si>
+    <t>accidentRecord</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>四不放过记录</t>
+  </si>
+  <si>
+    <t>fourRecord</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>安全规章制度模板</t>
+  </si>
+  <si>
+    <t>rulesTemplate</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>安全检查模板</t>
+  </si>
+  <si>
+    <t>securityCheckTemplate</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>设备点检模板</t>
+  </si>
+  <si>
+    <t>deviceCheckTemplate</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>罐式车辆检查模板</t>
+  </si>
+  <si>
+    <t>tankVehicleTemplate</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>风险排查模板</t>
+  </si>
+  <si>
+    <t>riskCheckTemplate</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>会议模板</t>
+  </si>
+  <si>
+    <t>meetingTemplate</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>培训模板</t>
+  </si>
+  <si>
+    <t>trainingTemplate</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>责任书模板</t>
+  </si>
+  <si>
+    <t>responsibilityTemplate</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>危险货物自查模板</t>
+  </si>
+  <si>
+    <t>dangerGoodsCheckTemplate</t>
+  </si>
+  <si>
+    <t>合并到企业简要介绍</t>
+  </si>
+  <si>
     <t>岗位人员档案</t>
   </si>
   <si>
     <t>positionArchives</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>121</t>
   </si>
   <si>
@@ -264,360 +624,6 @@
   </si>
   <si>
     <t>qualificationsShow</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>运营设备档案</t>
-  </si>
-  <si>
-    <t>operateArchives</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>安全设备档案</t>
-  </si>
-  <si>
-    <t>securityArchives</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>应急设备档案</t>
-  </si>
-  <si>
-    <t>emergencyArchives</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>特种设备档案</t>
-  </si>
-  <si>
-    <t>specialArchives</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>其他设备档案</t>
-  </si>
-  <si>
-    <t>otherArchives</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>安全投入台账</t>
-  </si>
-  <si>
-    <t>safetyAccount</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>GPS监控台账</t>
-  </si>
-  <si>
-    <t>GPSAccount</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>安全会议台账</t>
-  </si>
-  <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>宣传教育培训</t>
-  </si>
-  <si>
-    <t>training</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>日常安全检查</t>
-  </si>
-  <si>
-    <t>securityCheck</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>危险货物自查</t>
-  </si>
-  <si>
-    <t>dangerGoodsCheck</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>罐式车辆检查</t>
-  </si>
-  <si>
-    <t>tankVehicle</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>责任制考核</t>
-  </si>
-  <si>
-    <t>examination</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>安全责任考核</t>
-  </si>
-  <si>
-    <t>securityExamination</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>安全目标考核</t>
-  </si>
-  <si>
-    <t>goalExamination</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>应急预案演练</t>
-  </si>
-  <si>
-    <t>emergencyPlanDrill</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>职业健康记录</t>
-  </si>
-  <si>
-    <t>healthyRecord</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>三年行动计划</t>
-  </si>
-  <si>
-    <t>threeYearsPlan</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>责任状签署</t>
-  </si>
-  <si>
-    <t>responsibilitySign</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>标准化自评</t>
-  </si>
-  <si>
-    <t>standardization</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>安全文化建设</t>
-  </si>
-  <si>
-    <t>securityBuild</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>安全生产月</t>
-  </si>
-  <si>
-    <t>securityMonth</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>各种安全活动</t>
-  </si>
-  <si>
-    <t>securityActivity</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>风险辨识管控</t>
-  </si>
-  <si>
-    <t>riskControl</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>应急预案备案</t>
-  </si>
-  <si>
-    <t>emergencyPlanBak</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>事故记录及处理</t>
-  </si>
-  <si>
-    <t>accidentRecord</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>四不放过记录</t>
-  </si>
-  <si>
-    <t>fourRecord</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>安全规章制度模板</t>
-  </si>
-  <si>
-    <t>rulesTemplate</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>安全检查模板</t>
-  </si>
-  <si>
-    <t>securityCheckTemplate</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>设备点检模板</t>
-  </si>
-  <si>
-    <t>deviceCheckTemplate</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>罐式车辆检查模板</t>
-  </si>
-  <si>
-    <t>tankVehicleTemplate</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>风险排查模板</t>
-  </si>
-  <si>
-    <t>riskCheckTemplate</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>会议模板</t>
-  </si>
-  <si>
-    <t>meetingTemplate</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>培训模板</t>
-  </si>
-  <si>
-    <t>trainingTemplate</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>责任书模板</t>
-  </si>
-  <si>
-    <t>responsibilityTemplate</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>危险货物自查模板</t>
-  </si>
-  <si>
-    <t>dangerGoodsCheckTemplate</t>
-  </si>
-  <si>
-    <t>合并到企业简要介绍</t>
   </si>
   <si>
     <t>safetyMeetingAccount</t>
@@ -662,8 +668,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -690,32 +696,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,64 +710,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,15 +741,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,6 +760,74 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,13 +860,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,55 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,97 +1022,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,46 +1052,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,15 +1068,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,16 +1097,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1157,130 +1163,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1647,10 +1653,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2175,59 +2181,59 @@
         <v>13</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23">
-        <v>30</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2244,13 +2250,13 @@
         <v>13</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2267,13 +2273,13 @@
         <v>13</v>
       </c>
       <c r="G26">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2290,47 +2296,47 @@
         <v>13</v>
       </c>
       <c r="G27">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28">
-        <v>50</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>13</v>
@@ -2342,18 +2348,18 @@
         <v>13</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>13</v>
@@ -2365,30 +2371,30 @@
         <v>13</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2405,59 +2411,59 @@
         <v>13</v>
       </c>
       <c r="G32">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33">
-        <v>30</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2474,59 +2480,59 @@
         <v>13</v>
       </c>
       <c r="G35">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36">
-        <v>30</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2543,13 +2549,13 @@
         <v>13</v>
       </c>
       <c r="G38">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2566,13 +2572,13 @@
         <v>13</v>
       </c>
       <c r="G39">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2589,13 +2595,13 @@
         <v>13</v>
       </c>
       <c r="G40">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2612,13 +2618,13 @@
         <v>13</v>
       </c>
       <c r="G41">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2635,59 +2641,59 @@
         <v>13</v>
       </c>
       <c r="G42">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43">
-        <v>70</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2710,18 +2716,18 @@
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>13</v>
@@ -2733,64 +2739,64 @@
         <v>13</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G47">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>20</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B48" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" t="s">
-        <v>164</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48">
-        <v>30</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>13</v>
@@ -2802,18 +2808,18 @@
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>13</v>
@@ -2825,30 +2831,30 @@
         <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G51">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2865,13 +2871,13 @@
         <v>13</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2888,13 +2894,13 @@
         <v>13</v>
       </c>
       <c r="G53">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2911,13 +2917,13 @@
         <v>13</v>
       </c>
       <c r="G54">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2934,13 +2940,13 @@
         <v>13</v>
       </c>
       <c r="G55">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2957,13 +2963,13 @@
         <v>13</v>
       </c>
       <c r="G56">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2980,59 +2986,13 @@
         <v>13</v>
       </c>
       <c r="G57">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B58" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" t="s">
-        <v>196</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58">
-        <v>80</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B59" t="s">
-        <v>198</v>
-      </c>
-      <c r="D59" t="s">
-        <v>199</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59">
-        <v>41</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3088,7 +3048,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3539,10 +3499,10 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -3559,13 +3519,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -3582,13 +3542,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
@@ -3605,13 +3565,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -3623,18 +3583,18 @@
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>13</v>
@@ -3646,18 +3606,18 @@
         <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
@@ -3669,18 +3629,18 @@
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
@@ -3692,18 +3652,18 @@
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
@@ -3715,18 +3675,18 @@
         <v>13</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>13</v>
@@ -3738,18 +3698,18 @@
         <v>13</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>13</v>
@@ -3761,18 +3721,18 @@
         <v>13</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
@@ -3784,18 +3744,18 @@
         <v>13</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>13</v>
@@ -3807,18 +3767,18 @@
         <v>13</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>13</v>
@@ -3830,18 +3790,18 @@
         <v>13</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
@@ -3853,18 +3813,18 @@
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>13</v>
@@ -3876,18 +3836,18 @@
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>13</v>
@@ -3899,18 +3859,18 @@
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>13</v>
@@ -3922,18 +3882,18 @@
         <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>13</v>
@@ -3945,18 +3905,18 @@
         <v>13</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>13</v>
@@ -3968,18 +3928,18 @@
         <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -3991,18 +3951,18 @@
         <v>13</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -4014,18 +3974,18 @@
         <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>13</v>
@@ -4037,18 +3997,18 @@
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>13</v>
@@ -4060,18 +4020,18 @@
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>13</v>
@@ -4083,18 +4043,18 @@
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>13</v>
@@ -4106,19 +4066,19 @@
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
@@ -4132,18 +4092,18 @@
         <v>13</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>13</v>
@@ -4155,18 +4115,18 @@
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>13</v>
@@ -4178,18 +4138,18 @@
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>13</v>
@@ -4201,18 +4161,18 @@
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>13</v>
@@ -4224,18 +4184,18 @@
         <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>13</v>
@@ -4247,18 +4207,18 @@
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>13</v>
@@ -4270,18 +4230,18 @@
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>13</v>
@@ -4293,18 +4253,18 @@
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>13</v>
@@ -4316,18 +4276,18 @@
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>13</v>
@@ -4339,18 +4299,18 @@
         <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>13</v>
@@ -4362,18 +4322,18 @@
         <v>13</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D57" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>13</v>
@@ -4385,18 +4345,18 @@
         <v>13</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B58" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>13</v>
@@ -4408,18 +4368,18 @@
         <v>13</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>13</v>
@@ -4431,7 +4391,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="217">
   <si>
     <t>id</t>
   </si>
@@ -197,6 +197,333 @@
     <t>notification</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>人员档案</t>
+  </si>
+  <si>
+    <t>empArchives</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>设备档案</t>
+  </si>
+  <si>
+    <t>deviceArchives</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>安全投入台账</t>
+  </si>
+  <si>
+    <t>safetyAccount</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>GPS监控台账</t>
+  </si>
+  <si>
+    <t>GPSAccount</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>安全会议台账</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>宣传教育培训</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>日常安全检查</t>
+  </si>
+  <si>
+    <t>securityCheck</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>危险货物自查</t>
+  </si>
+  <si>
+    <t>dangerGoodsCheck</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>罐式车辆检查</t>
+  </si>
+  <si>
+    <t>tankVehicle</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>责任制考核</t>
+  </si>
+  <si>
+    <t>examination</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>安全责任考核</t>
+  </si>
+  <si>
+    <t>securityExamination</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>安全目标考核</t>
+  </si>
+  <si>
+    <t>goalExamination</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>应急预案演练</t>
+  </si>
+  <si>
+    <t>emergencyPlanDrill</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>职业健康记录</t>
+  </si>
+  <si>
+    <t>healthyRecord</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>三年行动计划</t>
+  </si>
+  <si>
+    <t>threeYearsPlan</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>责任状签署</t>
+  </si>
+  <si>
+    <t>responsibilitySign</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>标准化自评</t>
+  </si>
+  <si>
+    <t>standardization</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>安全文化建设</t>
+  </si>
+  <si>
+    <t>securityBuild</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>安全生产月</t>
+  </si>
+  <si>
+    <t>securityMonth</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>各种安全活动</t>
+  </si>
+  <si>
+    <t>securityActivity</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>风险辨识管控</t>
+  </si>
+  <si>
+    <t>riskControl</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>应急预案备案</t>
+  </si>
+  <si>
+    <t>emergencyPlanBak</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>事故记录及处理</t>
+  </si>
+  <si>
+    <t>accidentRecord</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>四不放过记录</t>
+  </si>
+  <si>
+    <t>fourRecord</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>安全规章制度模板</t>
+  </si>
+  <si>
+    <t>rulesTemplate</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>安全检查模板</t>
+  </si>
+  <si>
+    <t>securityCheckTemplate</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>设备点检模板</t>
+  </si>
+  <si>
+    <t>deviceCheckTemplate</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>罐式车辆检查模板</t>
+  </si>
+  <si>
+    <t>tankVehicleTemplate</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>风险排查模板</t>
+  </si>
+  <si>
+    <t>riskCheckTemplate</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>会议模板</t>
+  </si>
+  <si>
+    <t>meetingTemplate</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>培训模板</t>
+  </si>
+  <si>
+    <t>trainingTemplate</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>责任书模板</t>
+  </si>
+  <si>
+    <t>responsibilityTemplate</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>危险货物自查模板</t>
+  </si>
+  <si>
+    <t>dangerGoodsCheckTemplate</t>
+  </si>
+  <si>
+    <t>合并到企业简要介绍</t>
+  </si>
+  <si>
     <t>116</t>
   </si>
   <si>
@@ -236,19 +563,28 @@
     <t>positionCategory</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>人员档案</t>
-  </si>
-  <si>
-    <t>empArchives</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>123</t>
+    <t>岗位人员档案</t>
+  </si>
+  <si>
+    <t>positionArchives</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>类别人员档案</t>
+  </si>
+  <si>
+    <t>categoryArchives</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>所有资质展示</t>
+  </si>
+  <si>
+    <t>qualificationsShow</t>
   </si>
   <si>
     <t>运营设备档案</t>
@@ -294,336 +630,6 @@
   </si>
   <si>
     <t>otherArchives</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>安全投入台账</t>
-  </si>
-  <si>
-    <t>safetyAccount</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>GPS监控台账</t>
-  </si>
-  <si>
-    <t>GPSAccount</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>安全会议台账</t>
-  </si>
-  <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>宣传教育培训</t>
-  </si>
-  <si>
-    <t>training</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>日常安全检查</t>
-  </si>
-  <si>
-    <t>securityCheck</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>危险货物自查</t>
-  </si>
-  <si>
-    <t>dangerGoodsCheck</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>罐式车辆检查</t>
-  </si>
-  <si>
-    <t>tankVehicle</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>责任制考核</t>
-  </si>
-  <si>
-    <t>examination</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>安全责任考核</t>
-  </si>
-  <si>
-    <t>securityExamination</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>安全目标考核</t>
-  </si>
-  <si>
-    <t>goalExamination</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>应急预案演练</t>
-  </si>
-  <si>
-    <t>emergencyPlanDrill</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>职业健康记录</t>
-  </si>
-  <si>
-    <t>healthyRecord</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>三年行动计划</t>
-  </si>
-  <si>
-    <t>threeYearsPlan</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>责任状签署</t>
-  </si>
-  <si>
-    <t>responsibilitySign</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>标准化自评</t>
-  </si>
-  <si>
-    <t>standardization</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>安全文化建设</t>
-  </si>
-  <si>
-    <t>securityBuild</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>安全生产月</t>
-  </si>
-  <si>
-    <t>securityMonth</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>各种安全活动</t>
-  </si>
-  <si>
-    <t>securityActivity</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>风险辨识管控</t>
-  </si>
-  <si>
-    <t>riskControl</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>应急预案备案</t>
-  </si>
-  <si>
-    <t>emergencyPlanBak</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>事故记录及处理</t>
-  </si>
-  <si>
-    <t>accidentRecord</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>四不放过记录</t>
-  </si>
-  <si>
-    <t>fourRecord</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>安全规章制度模板</t>
-  </si>
-  <si>
-    <t>rulesTemplate</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>安全检查模板</t>
-  </si>
-  <si>
-    <t>securityCheckTemplate</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>设备点检模板</t>
-  </si>
-  <si>
-    <t>deviceCheckTemplate</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>罐式车辆检查模板</t>
-  </si>
-  <si>
-    <t>tankVehicleTemplate</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>风险排查模板</t>
-  </si>
-  <si>
-    <t>riskCheckTemplate</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>会议模板</t>
-  </si>
-  <si>
-    <t>meetingTemplate</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>培训模板</t>
-  </si>
-  <si>
-    <t>trainingTemplate</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>责任书模板</t>
-  </si>
-  <si>
-    <t>responsibilityTemplate</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>危险货物自查模板</t>
-  </si>
-  <si>
-    <t>dangerGoodsCheckTemplate</t>
-  </si>
-  <si>
-    <t>合并到企业简要介绍</t>
-  </si>
-  <si>
-    <t>岗位人员档案</t>
-  </si>
-  <si>
-    <t>positionArchives</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>类别人员档案</t>
-  </si>
-  <si>
-    <t>categoryArchives</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>所有资质展示</t>
-  </si>
-  <si>
-    <t>qualificationsShow</t>
   </si>
   <si>
     <t>safetyMeetingAccount</t>
@@ -667,10 +673,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -689,24 +695,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -718,16 +726,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,6 +765,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -751,17 +789,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -787,32 +817,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,14 +834,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,19 +860,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,7 +902,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,43 +938,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,13 +968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +986,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,67 +1034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,30 +1051,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1083,26 +1065,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,7 +1088,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,16 +1107,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,133 +1169,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1653,10 +1659,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2112,47 +2118,47 @@
         <v>13</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20">
-        <v>40</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -2164,30 +2170,30 @@
         <v>13</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2204,13 +2210,13 @@
         <v>13</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2227,70 +2233,70 @@
         <v>13</v>
       </c>
       <c r="G24">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25">
-        <v>40</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
@@ -2302,18 +2308,18 @@
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
@@ -2325,30 +2331,30 @@
         <v>13</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2365,13 +2371,13 @@
         <v>13</v>
       </c>
       <c r="G30">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2388,13 +2394,13 @@
         <v>13</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2411,59 +2417,59 @@
         <v>13</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
         <v>114</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>115</v>
       </c>
-      <c r="D33" t="s">
-        <v>116</v>
-      </c>
       <c r="F33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
         <v>117</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>118</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34">
-        <v>30</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2480,59 +2486,59 @@
         <v>13</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
         <v>124</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>125</v>
       </c>
-      <c r="D36" t="s">
-        <v>126</v>
-      </c>
       <c r="F36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G36">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
         <v>127</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>128</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37">
-        <v>30</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2549,13 +2555,13 @@
         <v>13</v>
       </c>
       <c r="G38">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2572,151 +2578,151 @@
         <v>13</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B40" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40">
-        <v>60</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G41">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42">
+        <v>20</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="D42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42">
-        <v>10</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G43">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G44">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G45">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2733,13 +2739,13 @@
         <v>13</v>
       </c>
       <c r="G46">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2756,243 +2762,59 @@
         <v>13</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s">
         <v>163</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>164</v>
       </c>
-      <c r="D48" t="s">
-        <v>165</v>
-      </c>
       <c r="F48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G48">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" t="s">
         <v>166</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>167</v>
       </c>
-      <c r="D49" t="s">
-        <v>168</v>
-      </c>
       <c r="F49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" t="s">
-        <v>172</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50">
-        <v>20</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51">
-        <v>30</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" t="s">
-        <v>178</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52">
-        <v>40</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" t="s">
-        <v>180</v>
-      </c>
-      <c r="D53" t="s">
-        <v>181</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53">
-        <v>50</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B54" t="s">
-        <v>183</v>
-      </c>
-      <c r="D54" t="s">
-        <v>184</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54">
-        <v>60</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D55" t="s">
-        <v>187</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55">
-        <v>70</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" t="s">
-        <v>189</v>
-      </c>
-      <c r="D56" t="s">
-        <v>190</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56">
-        <v>80</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B57" t="s">
-        <v>192</v>
-      </c>
-      <c r="D57" t="s">
-        <v>193</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57">
-        <v>41</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3007,8 +2829,8 @@
   <sheetPr/>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J59"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3048,7 +2870,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3404,13 +3226,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>13</v>
@@ -3422,18 +3244,18 @@
         <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -3445,18 +3267,18 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -3468,18 +3290,18 @@
         <v>13</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
@@ -3491,18 +3313,18 @@
         <v>13</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -3514,18 +3336,18 @@
         <v>13</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -3537,18 +3359,18 @@
         <v>13</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
@@ -3560,18 +3382,18 @@
         <v>13</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -3583,18 +3405,18 @@
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>13</v>
@@ -3606,18 +3428,18 @@
         <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
@@ -3629,18 +3451,18 @@
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
@@ -3652,18 +3474,18 @@
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
@@ -3675,18 +3497,18 @@
         <v>13</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>13</v>
@@ -3698,18 +3520,18 @@
         <v>13</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>13</v>
@@ -3721,18 +3543,18 @@
         <v>13</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
@@ -3744,18 +3566,18 @@
         <v>13</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>13</v>
@@ -3767,18 +3589,18 @@
         <v>13</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>13</v>
@@ -3790,18 +3612,18 @@
         <v>13</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
@@ -3813,18 +3635,18 @@
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>13</v>
@@ -3836,18 +3658,18 @@
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>13</v>
@@ -3859,18 +3681,18 @@
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>13</v>
@@ -3882,18 +3704,18 @@
         <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>13</v>
@@ -3905,18 +3727,18 @@
         <v>13</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>13</v>
@@ -3928,18 +3750,18 @@
         <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -3951,18 +3773,18 @@
         <v>13</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -3974,18 +3796,18 @@
         <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>13</v>
@@ -3997,18 +3819,18 @@
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>13</v>
@@ -4020,18 +3842,18 @@
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>13</v>
@@ -4043,18 +3865,18 @@
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="4" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>13</v>
@@ -4066,19 +3888,19 @@
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
@@ -4092,18 +3914,18 @@
         <v>13</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>13</v>
@@ -4115,18 +3937,18 @@
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>13</v>
@@ -4138,18 +3960,18 @@
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>13</v>
@@ -4161,18 +3983,18 @@
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>13</v>
@@ -4184,18 +4006,18 @@
         <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>13</v>
@@ -4207,18 +4029,18 @@
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>13</v>
@@ -4230,18 +4052,18 @@
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>13</v>
@@ -4253,18 +4075,18 @@
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>13</v>
@@ -4276,18 +4098,18 @@
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>13</v>
@@ -4299,18 +4121,18 @@
         <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D56" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>13</v>
@@ -4322,18 +4144,18 @@
         <v>13</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>13</v>
@@ -4345,18 +4167,18 @@
         <v>13</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>13</v>
@@ -4368,18 +4190,18 @@
         <v>13</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>13</v>
@@ -4391,7 +4213,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="242">
   <si>
     <t>id</t>
   </si>
@@ -338,6 +338,366 @@
     <t>healthyRecord</t>
   </si>
   <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>标准化自评</t>
+  </si>
+  <si>
+    <t>standardization</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>安全文化建设</t>
+  </si>
+  <si>
+    <t>securityBuild</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>安全生产月</t>
+  </si>
+  <si>
+    <t>securityMonth</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>各种安全活动</t>
+  </si>
+  <si>
+    <t>securityActivity</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>风险辨识管控</t>
+  </si>
+  <si>
+    <t>riskControl</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>应急预案备案</t>
+  </si>
+  <si>
+    <t>emergencyPlanBak</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>事故记录及处理</t>
+  </si>
+  <si>
+    <t>accidentRecord</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>四不放过记录</t>
+  </si>
+  <si>
+    <t>fourRecord</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>安全规章制度模板</t>
+  </si>
+  <si>
+    <t>rulesTemplate</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>安全检查模板</t>
+  </si>
+  <si>
+    <t>securityCheckTemplate</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>设备点检模板</t>
+  </si>
+  <si>
+    <t>deviceCheckTemplate</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>罐式车辆检查模板</t>
+  </si>
+  <si>
+    <t>tankVehicleTemplate</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>风险排查模板</t>
+  </si>
+  <si>
+    <t>riskCheckTemplate</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>会议模板</t>
+  </si>
+  <si>
+    <t>meetingTemplate</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>培训模板</t>
+  </si>
+  <si>
+    <t>trainingTemplate</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>责任书模板</t>
+  </si>
+  <si>
+    <t>responsibilityTemplate</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>危险货物自查模板</t>
+  </si>
+  <si>
+    <t>dangerGoodsCheckTemplate</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>安全责任考核模板</t>
+  </si>
+  <si>
+    <t>securityExaminationTemplate</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>安全目标考核模板</t>
+  </si>
+  <si>
+    <t>goalExaminationTemplate</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>应急预案演练模板</t>
+  </si>
+  <si>
+    <t>emergencyPlanDrillTemplate</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>职业健康记录模板</t>
+  </si>
+  <si>
+    <t>healthyRecordTemplate</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>标准化自评模板</t>
+  </si>
+  <si>
+    <t>standardizationTemplate</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>合并到企业简要介绍</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>企业架构设置</t>
+  </si>
+  <si>
+    <t>structureSet</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>岗位设置任命</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>集体机构任命</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>基层岗位类别</t>
+  </si>
+  <si>
+    <t>positionCategory</t>
+  </si>
+  <si>
+    <t>岗位人员档案</t>
+  </si>
+  <si>
+    <t>positionArchives</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>类别人员档案</t>
+  </si>
+  <si>
+    <t>categoryArchives</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>所有资质展示</t>
+  </si>
+  <si>
+    <t>qualificationsShow</t>
+  </si>
+  <si>
+    <t>运营设备档案</t>
+  </si>
+  <si>
+    <t>operateArchives</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>安全设备档案</t>
+  </si>
+  <si>
+    <t>securityArchives</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>应急设备档案</t>
+  </si>
+  <si>
+    <t>emergencyArchives</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>特种设备档案</t>
+  </si>
+  <si>
+    <t>specialArchives</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>其他设备档案</t>
+  </si>
+  <si>
+    <t>otherArchives</t>
+  </si>
+  <si>
+    <t>safetyMeetingAccount</t>
+  </si>
+  <si>
+    <t>安全隐患排查</t>
+  </si>
+  <si>
+    <t>hiddenDangerCheck</t>
+  </si>
+  <si>
     <t>139</t>
   </si>
   <si>
@@ -354,291 +714,6 @@
   </si>
   <si>
     <t>responsibilitySign</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>标准化自评</t>
-  </si>
-  <si>
-    <t>standardization</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>安全文化建设</t>
-  </si>
-  <si>
-    <t>securityBuild</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>安全生产月</t>
-  </si>
-  <si>
-    <t>securityMonth</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>各种安全活动</t>
-  </si>
-  <si>
-    <t>securityActivity</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>风险辨识管控</t>
-  </si>
-  <si>
-    <t>riskControl</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>应急预案备案</t>
-  </si>
-  <si>
-    <t>emergencyPlanBak</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>事故记录及处理</t>
-  </si>
-  <si>
-    <t>accidentRecord</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>四不放过记录</t>
-  </si>
-  <si>
-    <t>fourRecord</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>安全规章制度模板</t>
-  </si>
-  <si>
-    <t>rulesTemplate</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>安全检查模板</t>
-  </si>
-  <si>
-    <t>securityCheckTemplate</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>设备点检模板</t>
-  </si>
-  <si>
-    <t>deviceCheckTemplate</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>罐式车辆检查模板</t>
-  </si>
-  <si>
-    <t>tankVehicleTemplate</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>风险排查模板</t>
-  </si>
-  <si>
-    <t>riskCheckTemplate</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>会议模板</t>
-  </si>
-  <si>
-    <t>meetingTemplate</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>培训模板</t>
-  </si>
-  <si>
-    <t>trainingTemplate</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>责任书模板</t>
-  </si>
-  <si>
-    <t>responsibilityTemplate</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>危险货物自查模板</t>
-  </si>
-  <si>
-    <t>dangerGoodsCheckTemplate</t>
-  </si>
-  <si>
-    <t>合并到企业简要介绍</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>企业架构设置</t>
-  </si>
-  <si>
-    <t>structureSet</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>岗位设置任命</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>集体机构任命</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>基层岗位类别</t>
-  </si>
-  <si>
-    <t>positionCategory</t>
-  </si>
-  <si>
-    <t>岗位人员档案</t>
-  </si>
-  <si>
-    <t>positionArchives</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>类别人员档案</t>
-  </si>
-  <si>
-    <t>categoryArchives</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>所有资质展示</t>
-  </si>
-  <si>
-    <t>qualificationsShow</t>
-  </si>
-  <si>
-    <t>运营设备档案</t>
-  </si>
-  <si>
-    <t>operateArchives</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>安全设备档案</t>
-  </si>
-  <si>
-    <t>securityArchives</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>应急设备档案</t>
-  </si>
-  <si>
-    <t>emergencyArchives</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>特种设备档案</t>
-  </si>
-  <si>
-    <t>specialArchives</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>其他设备档案</t>
-  </si>
-  <si>
-    <t>otherArchives</t>
-  </si>
-  <si>
-    <t>safetyMeetingAccount</t>
-  </si>
-  <si>
-    <t>安全隐患排查</t>
-  </si>
-  <si>
-    <t>hiddenDangerCheck</t>
   </si>
   <si>
     <t>145</t>
@@ -673,10 +748,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -690,37 +765,6 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -741,13 +785,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -763,42 +875,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,8 +891,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,13 +909,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,19 +935,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,7 +971,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +1007,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,24 +1055,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -950,7 +1067,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,73 +1103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,16 +1130,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,15 +1159,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1108,17 +1174,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,15 +1212,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1157,10 +1232,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1169,133 +1244,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1659,10 +1734,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A52" sqref="A48:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2394,7 +2469,7 @@
         <v>13</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>13</v>
@@ -2417,59 +2492,59 @@
         <v>13</v>
       </c>
       <c r="G32">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33">
-        <v>70</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2492,18 +2567,18 @@
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>13</v>
@@ -2515,64 +2590,64 @@
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G37">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38">
-        <v>30</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>13</v>
@@ -2584,18 +2659,18 @@
         <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -2607,30 +2682,30 @@
         <v>13</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2647,13 +2722,13 @@
         <v>13</v>
       </c>
       <c r="G42">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2670,13 +2745,13 @@
         <v>13</v>
       </c>
       <c r="G43">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2693,13 +2768,13 @@
         <v>13</v>
       </c>
       <c r="G44">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2716,13 +2791,13 @@
         <v>13</v>
       </c>
       <c r="G45">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2739,13 +2814,13 @@
         <v>13</v>
       </c>
       <c r="G46">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2762,13 +2837,13 @@
         <v>13</v>
       </c>
       <c r="G47">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2785,13 +2860,13 @@
         <v>13</v>
       </c>
       <c r="G48">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2808,13 +2883,132 @@
         <v>13</v>
       </c>
       <c r="G49">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>84</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>85</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>86</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2870,7 +3064,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3226,13 +3420,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>13</v>
@@ -3244,18 +3438,18 @@
         <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -3267,18 +3461,18 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -3290,18 +3484,18 @@
         <v>13</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
@@ -3313,7 +3507,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3321,10 +3515,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -3341,13 +3535,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -3364,13 +3558,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
@@ -3390,10 +3584,10 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -3405,18 +3599,18 @@
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>13</v>
@@ -3428,18 +3622,18 @@
         <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
@@ -3451,18 +3645,18 @@
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
@@ -3474,18 +3668,18 @@
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
@@ -3497,7 +3691,7 @@
         <v>13</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3554,7 +3748,7 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
@@ -3620,10 +3814,10 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="D34" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
@@ -3755,13 +3949,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -3778,13 +3972,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -3801,13 +3995,13 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>13</v>
@@ -3824,13 +4018,13 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>13</v>
@@ -3842,18 +4036,18 @@
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>13</v>
@@ -3865,18 +4059,18 @@
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>13</v>
@@ -3888,19 +4082,19 @@
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
@@ -3914,18 +4108,18 @@
         <v>13</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>13</v>
@@ -3937,18 +4131,18 @@
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>13</v>
@@ -3960,18 +4154,18 @@
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>13</v>
@@ -3983,18 +4177,18 @@
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>13</v>
@@ -4006,18 +4200,18 @@
         <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>13</v>
@@ -4029,18 +4223,18 @@
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>13</v>
@@ -4052,18 +4246,18 @@
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>13</v>
@@ -4075,18 +4269,18 @@
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
         <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>13</v>
@@ -4098,18 +4292,18 @@
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>13</v>
@@ -4121,18 +4315,18 @@
         <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>13</v>
@@ -4144,18 +4338,18 @@
         <v>13</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>13</v>
@@ -4167,18 +4361,18 @@
         <v>13</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D58" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>13</v>
@@ -4190,18 +4384,18 @@
         <v>13</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
         <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>13</v>
@@ -4213,7 +4407,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -749,9 +749,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -770,8 +770,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,7 +832,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,16 +845,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,14 +885,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,62 +900,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,14 +908,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,13 +935,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,31 +953,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,19 +977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,18 +995,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1043,7 +1007,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,67 +1109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,6 +1126,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1140,6 +1149,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,6 +1201,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1173,69 +1226,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1244,133 +1244,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1737,7 +1737,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A52" sqref="A48:A52"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="244">
   <si>
     <t>id</t>
   </si>
@@ -549,6 +549,12 @@
   </si>
   <si>
     <t>164</t>
+  </si>
+  <si>
+    <t>人员档案模板</t>
+  </si>
+  <si>
+    <t>empArchivesTemplate</t>
   </si>
   <si>
     <t>165</t>
@@ -748,10 +754,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -770,6 +776,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -778,11 +820,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,50 +866,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,7 +890,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,37 +915,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,127 +941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,7 +959,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,37 +1121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,6 +1132,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1162,11 +1177,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,21 +1222,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1211,31 +1232,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1244,133 +1250,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1736,8 +1742,8 @@
   <sheetPr/>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2961,54 +2967,72 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
         <v>177</v>
       </c>
+      <c r="B53" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53">
+        <v>87</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3064,7 +3088,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3420,13 +3444,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>13</v>
@@ -3438,18 +3462,18 @@
         <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -3461,18 +3485,18 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -3484,18 +3508,18 @@
         <v>13</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
@@ -3507,7 +3531,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3515,10 +3539,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -3535,13 +3559,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -3558,13 +3582,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
@@ -3584,10 +3608,10 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -3599,18 +3623,18 @@
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>13</v>
@@ -3622,18 +3646,18 @@
         <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
@@ -3645,18 +3669,18 @@
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
@@ -3668,18 +3692,18 @@
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
@@ -3691,7 +3715,7 @@
         <v>13</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3748,7 +3772,7 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
@@ -3814,10 +3838,10 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
@@ -3949,13 +3973,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B40" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -3972,13 +3996,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -4087,14 +4111,14 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
@@ -4208,7 +4232,7 @@
         <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D51" t="s">
         <v>136</v>
@@ -4231,7 +4255,7 @@
         <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D52" t="s">
         <v>140</v>
@@ -4254,7 +4278,7 @@
         <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D53" t="s">
         <v>143</v>
@@ -4300,7 +4324,7 @@
         <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D55" t="s">
         <v>149</v>
@@ -4323,7 +4347,7 @@
         <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D56" t="s">
         <v>152</v>
@@ -4346,7 +4370,7 @@
         <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D57" t="s">
         <v>155</v>
@@ -4369,7 +4393,7 @@
         <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D58" t="s">
         <v>158</v>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="238">
   <si>
     <t>id</t>
   </si>
@@ -560,30 +560,6 @@
     <t>165</t>
   </si>
   <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
     <t>合并到企业简要介绍</t>
   </si>
   <si>
@@ -747,19 +723,21 @@
   </si>
   <si>
     <t>责任书</t>
+  </si>
+  <si>
+    <t>设备档案模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceArchives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,151 +754,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,194 +779,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1134,253 +788,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1388,63 +800,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00DDDDDD"/>
+      <color rgb="FFDDDDDD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1734,19 +1099,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
@@ -1756,7 +1121,7 @@
     <col min="8" max="8" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1788,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1814,7 +1179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1837,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1860,7 +1225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1883,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1909,7 +1274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1932,7 +1297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1955,7 +1320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -1978,7 +1343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -2001,7 +1366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -2024,7 +1389,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2047,7 +1412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -2070,7 +1435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -2093,7 +1458,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -2116,7 +1481,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
@@ -2139,7 +1504,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>60</v>
       </c>
@@ -2162,7 +1527,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
@@ -2170,7 +1535,7 @@
         <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -2185,7 +1550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
@@ -2208,7 +1573,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>71</v>
       </c>
@@ -2231,7 +1596,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>74</v>
       </c>
@@ -2254,7 +1619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>78</v>
       </c>
@@ -2277,7 +1642,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>81</v>
       </c>
@@ -2300,7 +1665,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>84</v>
       </c>
@@ -2323,7 +1688,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>88</v>
       </c>
@@ -2346,7 +1711,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>91</v>
       </c>
@@ -2369,7 +1734,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>94</v>
       </c>
@@ -2392,7 +1757,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>98</v>
       </c>
@@ -2415,7 +1780,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>101</v>
       </c>
@@ -2438,7 +1803,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>104</v>
       </c>
@@ -2461,7 +1826,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>107</v>
       </c>
@@ -2484,7 +1849,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>110</v>
       </c>
@@ -2507,7 +1872,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>114</v>
       </c>
@@ -2530,7 +1895,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>117</v>
       </c>
@@ -2553,7 +1918,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>120</v>
       </c>
@@ -2576,7 +1941,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>124</v>
       </c>
@@ -2599,7 +1964,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>127</v>
       </c>
@@ -2622,7 +1987,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>131</v>
       </c>
@@ -2645,7 +2010,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>134</v>
       </c>
@@ -2668,7 +2033,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>138</v>
       </c>
@@ -2691,7 +2056,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>141</v>
       </c>
@@ -2714,7 +2079,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>144</v>
       </c>
@@ -2737,7 +2102,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>147</v>
       </c>
@@ -2760,7 +2125,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>150</v>
       </c>
@@ -2783,7 +2148,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>153</v>
       </c>
@@ -2806,7 +2171,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>156</v>
       </c>
@@ -2829,7 +2194,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>159</v>
       </c>
@@ -2852,7 +2217,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>162</v>
       </c>
@@ -2875,7 +2240,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>165</v>
       </c>
@@ -2898,7 +2263,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>168</v>
       </c>
@@ -2921,7 +2286,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>171</v>
       </c>
@@ -2944,7 +2309,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>174</v>
       </c>
@@ -2967,7 +2332,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>177</v>
       </c>
@@ -2990,73 +2355,74 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="4" t="s">
-        <v>188</v>
-      </c>
+      <c r="B54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54">
+        <v>88</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="11" max="11" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3088,10 +2454,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3117,7 +2483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3140,7 +2506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -3163,7 +2529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -3186,7 +2552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -3212,7 +2578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -3235,7 +2601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -3258,7 +2624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -3281,7 +2647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -3304,7 +2670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -3327,7 +2693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -3350,7 +2716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -3373,7 +2739,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -3396,7 +2762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -3419,7 +2785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
@@ -3442,15 +2808,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>13</v>
@@ -3462,18 +2828,18 @@
         <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -3485,18 +2851,18 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -3508,18 +2874,18 @@
         <v>13</v>
       </c>
       <c r="J19" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" t="s">
-        <v>201</v>
-      </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
@@ -3531,18 +2897,18 @@
         <v>13</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -3557,15 +2923,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -3580,15 +2946,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D23" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
@@ -3603,15 +2969,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -3623,18 +2989,18 @@
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D25" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>13</v>
@@ -3646,18 +3012,18 @@
         <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D26" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
@@ -3669,18 +3035,18 @@
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27" t="s">
-        <v>221</v>
-      </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
@@ -3692,18 +3058,18 @@
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D28" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
@@ -3715,10 +3081,10 @@
         <v>13</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
@@ -3741,7 +3107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
@@ -3764,7 +3130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
@@ -3772,7 +3138,7 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
@@ -3787,7 +3153,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
@@ -3810,7 +3176,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
@@ -3833,15 +3199,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
@@ -3856,7 +3222,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>91</v>
       </c>
@@ -3879,7 +3245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
@@ -3902,7 +3268,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>98</v>
       </c>
@@ -3925,7 +3291,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>101</v>
       </c>
@@ -3948,7 +3314,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>104</v>
       </c>
@@ -3971,15 +3337,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -3994,15 +3360,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -4017,7 +3383,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>107</v>
       </c>
@@ -4040,7 +3406,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>110</v>
       </c>
@@ -4063,7 +3429,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>114</v>
       </c>
@@ -4086,7 +3452,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>117</v>
       </c>
@@ -4109,16 +3475,16 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
@@ -4135,7 +3501,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>120</v>
       </c>
@@ -4158,7 +3524,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>124</v>
       </c>
@@ -4181,7 +3547,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>127</v>
       </c>
@@ -4204,7 +3570,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>131</v>
       </c>
@@ -4227,12 +3593,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
         <v>136</v>
@@ -4250,12 +3616,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
         <v>140</v>
@@ -4273,12 +3639,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D53" t="s">
         <v>143</v>
@@ -4296,7 +3662,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>144</v>
       </c>
@@ -4319,12 +3685,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s">
         <v>149</v>
@@ -4342,12 +3708,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D56" t="s">
         <v>152</v>
@@ -4365,12 +3731,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D57" t="s">
         <v>155</v>
@@ -4388,12 +3754,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s">
         <v>158</v>
@@ -4411,7 +3777,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>159</v>
       </c>
@@ -4435,7 +3801,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,6 +560,12 @@
     <t>165</t>
   </si>
   <si>
+    <t>设备档案模板</t>
+  </si>
+  <si>
+    <t>deviceArchivesTemplate</t>
+  </si>
+  <si>
     <t>合并到企业简要介绍</t>
   </si>
   <si>
@@ -723,21 +729,19 @@
   </si>
   <si>
     <t>责任书</t>
-  </si>
-  <si>
-    <t>设备档案模板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceArchives</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,13 +758,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,8 +921,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -788,11 +1116,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -800,16 +1370,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFDDDDDD"/>
+      <color rgb="00DDDDDD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1099,19 +1716,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
@@ -1121,7 +1738,7 @@
     <col min="8" max="8" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1202,7 +1819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1225,7 +1842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1248,7 +1865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1274,7 +1891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1297,7 +1914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1320,7 +1937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -1343,7 +1960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -1366,7 +1983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1389,7 +2006,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -1412,7 +2029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -1435,7 +2052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -1458,7 +2075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -1481,7 +2098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
@@ -1504,7 +2121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
         <v>60</v>
       </c>
@@ -1527,7 +2144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
@@ -1535,7 +2152,7 @@
         <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -1550,7 +2167,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
@@ -1573,7 +2190,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
         <v>71</v>
       </c>
@@ -1596,7 +2213,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
         <v>74</v>
       </c>
@@ -1619,7 +2236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
         <v>78</v>
       </c>
@@ -1642,7 +2259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
         <v>81</v>
       </c>
@@ -1665,7 +2282,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
         <v>84</v>
       </c>
@@ -1688,7 +2305,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
         <v>88</v>
       </c>
@@ -1711,7 +2328,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
         <v>91</v>
       </c>
@@ -1734,7 +2351,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
         <v>94</v>
       </c>
@@ -1757,7 +2374,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
         <v>98</v>
       </c>
@@ -1780,7 +2397,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
         <v>101</v>
       </c>
@@ -1803,7 +2420,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
         <v>104</v>
       </c>
@@ -1826,7 +2443,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
         <v>107</v>
       </c>
@@ -1849,7 +2466,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="4" t="s">
         <v>110</v>
       </c>
@@ -1872,7 +2489,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
         <v>114</v>
       </c>
@@ -1895,7 +2512,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
         <v>117</v>
       </c>
@@ -1918,7 +2535,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
         <v>120</v>
       </c>
@@ -1941,7 +2558,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
         <v>124</v>
       </c>
@@ -1964,7 +2581,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
         <v>127</v>
       </c>
@@ -1987,7 +2604,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
         <v>131</v>
       </c>
@@ -2010,7 +2627,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
         <v>134</v>
       </c>
@@ -2033,7 +2650,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
         <v>138</v>
       </c>
@@ -2056,7 +2673,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
         <v>141</v>
       </c>
@@ -2079,7 +2696,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
         <v>144</v>
       </c>
@@ -2102,7 +2719,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
         <v>147</v>
       </c>
@@ -2125,7 +2742,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
         <v>150</v>
       </c>
@@ -2148,7 +2765,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" s="4" t="s">
         <v>153</v>
       </c>
@@ -2171,7 +2788,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="A46" s="4" t="s">
         <v>156</v>
       </c>
@@ -2194,7 +2811,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
         <v>159</v>
       </c>
@@ -2217,7 +2834,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
         <v>162</v>
       </c>
@@ -2240,7 +2857,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
         <v>165</v>
       </c>
@@ -2263,7 +2880,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
         <v>168</v>
       </c>
@@ -2286,7 +2903,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
         <v>171</v>
       </c>
@@ -2309,7 +2926,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
         <v>174</v>
       </c>
@@ -2332,7 +2949,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
         <v>177</v>
       </c>
@@ -2355,15 +2972,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>13</v>
@@ -2378,51 +2995,28 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="4"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="11" max="11" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2454,10 +3048,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2483,7 +3077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -2506,7 +3100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2529,7 +3123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -2552,7 +3146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -2578,7 +3172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -2601,7 +3195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -2624,7 +3218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2647,7 +3241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -2670,7 +3264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -2693,7 +3287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2716,7 +3310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -2739,7 +3333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -2762,7 +3356,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -2785,7 +3379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
@@ -2808,15 +3402,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>13</v>
@@ -2828,18 +3422,18 @@
         <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -2851,18 +3445,18 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -2874,18 +3468,18 @@
         <v>13</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
@@ -2897,18 +3491,18 @@
         <v>13</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -2923,15 +3517,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -2946,15 +3540,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
@@ -2969,15 +3563,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -2989,18 +3583,18 @@
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>13</v>
@@ -3012,18 +3606,18 @@
         <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
@@ -3035,18 +3629,18 @@
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
@@ -3058,18 +3652,18 @@
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
@@ -3081,10 +3675,10 @@
         <v>13</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
@@ -3107,7 +3701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
@@ -3130,7 +3724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
@@ -3138,7 +3732,7 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
@@ -3153,7 +3747,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
@@ -3176,7 +3770,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
@@ -3199,15 +3793,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
@@ -3222,7 +3816,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
         <v>91</v>
       </c>
@@ -3245,7 +3839,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
@@ -3268,7 +3862,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
         <v>98</v>
       </c>
@@ -3291,7 +3885,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
         <v>101</v>
       </c>
@@ -3314,7 +3908,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
         <v>104</v>
       </c>
@@ -3337,15 +3931,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D40" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -3360,15 +3954,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -3383,7 +3977,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
         <v>107</v>
       </c>
@@ -3406,7 +4000,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
         <v>110</v>
       </c>
@@ -3429,7 +4023,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
         <v>114</v>
       </c>
@@ -3452,7 +4046,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" s="4" t="s">
         <v>117</v>
       </c>
@@ -3475,16 +4069,16 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
@@ -3501,7 +4095,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
         <v>120</v>
       </c>
@@ -3524,7 +4118,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
         <v>124</v>
       </c>
@@ -3547,7 +4141,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
         <v>127</v>
       </c>
@@ -3570,7 +4164,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
         <v>131</v>
       </c>
@@ -3593,12 +4187,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D51" t="s">
         <v>136</v>
@@ -3616,12 +4210,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D52" t="s">
         <v>140</v>
@@ -3639,12 +4233,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
         <v>143</v>
@@ -3662,7 +4256,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
         <v>144</v>
       </c>
@@ -3685,12 +4279,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s">
         <v>149</v>
@@ -3708,12 +4302,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="A56" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
         <v>152</v>
@@ -3731,12 +4325,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D57" t="s">
         <v>155</v>
@@ -3754,12 +4348,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="A58" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D58" t="s">
         <v>158</v>
@@ -3777,7 +4371,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
         <v>159</v>
       </c>
@@ -3801,7 +4395,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -269,6 +269,15 @@
     <t>securityCheck</t>
   </si>
   <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>设备点检</t>
+  </si>
+  <si>
+    <t>deviceCheck</t>
+  </si>
+  <si>
     <t>10000</t>
   </si>
   <si>
@@ -714,9 +723,6 @@
   </si>
   <si>
     <t>安全检查</t>
-  </si>
-  <si>
-    <t>设备点检</t>
   </si>
   <si>
     <t>风险排查</t>
@@ -759,6 +765,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -773,10 +808,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -796,72 +863,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -872,9 +878,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,7 +895,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,7 +929,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +1013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,19 +1025,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,7 +1067,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,115 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,15 +1120,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1150,6 +1147,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1161,26 +1202,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,31 +1220,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1235,130 +1241,130 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1722,10 +1728,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2296,36 +2302,36 @@
         <v>13</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>89</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25">
-        <v>20</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2342,13 +2348,13 @@
         <v>13</v>
       </c>
       <c r="G26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2365,36 +2371,36 @@
         <v>13</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
         <v>98</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>99</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28">
-        <v>20</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2411,13 +2417,13 @@
         <v>13</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2434,13 +2440,13 @@
         <v>13</v>
       </c>
       <c r="G30">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2457,13 +2463,13 @@
         <v>13</v>
       </c>
       <c r="G31">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2480,36 +2486,36 @@
         <v>13</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
         <v>114</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>115</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33">
-        <v>20</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2526,13 +2532,13 @@
         <v>13</v>
       </c>
       <c r="G34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2549,36 +2555,36 @@
         <v>13</v>
       </c>
       <c r="G35">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
         <v>124</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>125</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36">
-        <v>30</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2595,36 +2601,36 @@
         <v>13</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
         <v>131</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>132</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38">
-        <v>20</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2641,36 +2647,36 @@
         <v>13</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
         <v>138</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>139</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40">
-        <v>20</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2687,13 +2693,13 @@
         <v>13</v>
       </c>
       <c r="G41">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2710,13 +2716,13 @@
         <v>13</v>
       </c>
       <c r="G42">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2733,13 +2739,13 @@
         <v>13</v>
       </c>
       <c r="G43">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2756,13 +2762,13 @@
         <v>13</v>
       </c>
       <c r="G44">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2779,13 +2785,13 @@
         <v>13</v>
       </c>
       <c r="G45">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2802,13 +2808,13 @@
         <v>13</v>
       </c>
       <c r="G46">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2825,13 +2831,13 @@
         <v>13</v>
       </c>
       <c r="G47">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2848,13 +2854,13 @@
         <v>13</v>
       </c>
       <c r="G48">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2871,13 +2877,13 @@
         <v>13</v>
       </c>
       <c r="G49">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2894,13 +2900,13 @@
         <v>13</v>
       </c>
       <c r="G50">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2917,13 +2923,13 @@
         <v>13</v>
       </c>
       <c r="G51">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2940,13 +2946,13 @@
         <v>13</v>
       </c>
       <c r="G52">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2963,13 +2969,13 @@
         <v>13</v>
       </c>
       <c r="G53">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2986,13 +2992,36 @@
         <v>13</v>
       </c>
       <c r="G54">
+        <v>87</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55">
         <v>88</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>137</v>
+      <c r="I55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3048,7 +3077,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3404,13 +3433,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>13</v>
@@ -3422,18 +3451,18 @@
         <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -3445,18 +3474,18 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -3468,18 +3497,18 @@
         <v>13</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
@@ -3491,7 +3520,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3499,10 +3528,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -3519,13 +3548,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -3542,13 +3571,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
@@ -3568,10 +3597,10 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D24" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -3583,18 +3612,18 @@
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>13</v>
@@ -3606,18 +3635,18 @@
         <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
@@ -3629,18 +3658,18 @@
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
@@ -3652,18 +3681,18 @@
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
@@ -3675,7 +3704,7 @@
         <v>13</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3732,7 +3761,7 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
@@ -3795,13 +3824,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
@@ -3813,18 +3842,18 @@
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>13</v>
@@ -3836,18 +3865,18 @@
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>13</v>
@@ -3859,18 +3888,18 @@
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>13</v>
@@ -3882,18 +3911,18 @@
         <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>13</v>
@@ -3905,18 +3934,18 @@
         <v>13</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>13</v>
@@ -3928,18 +3957,18 @@
         <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -3951,18 +3980,18 @@
         <v>13</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -3974,18 +4003,18 @@
         <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>13</v>
@@ -3997,18 +4026,18 @@
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>13</v>
@@ -4020,18 +4049,18 @@
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>13</v>
@@ -4043,18 +4072,18 @@
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>13</v>
@@ -4066,19 +4095,19 @@
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
@@ -4092,18 +4121,18 @@
         <v>13</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>13</v>
@@ -4115,18 +4144,18 @@
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>13</v>
@@ -4138,18 +4167,18 @@
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>13</v>
@@ -4161,18 +4190,18 @@
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>13</v>
@@ -4184,18 +4213,18 @@
         <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B51" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>13</v>
@@ -4207,18 +4236,18 @@
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>13</v>
@@ -4230,18 +4259,18 @@
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>13</v>
@@ -4253,18 +4282,18 @@
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>13</v>
@@ -4276,18 +4305,18 @@
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>13</v>
@@ -4299,18 +4328,18 @@
         <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>13</v>
@@ -4322,18 +4351,18 @@
         <v>13</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>13</v>
@@ -4345,18 +4374,18 @@
         <v>13</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>13</v>
@@ -4368,18 +4397,18 @@
         <v>13</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>13</v>
@@ -4391,7 +4420,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -742,10 +742,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -765,7 +765,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,21 +832,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,6 +840,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -816,38 +862,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -863,16 +892,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,29 +902,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,7 +929,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,54 +1001,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1007,13 +1013,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,90 +1113,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1123,17 +1123,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,13 +1143,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,32 +1176,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,16 +1211,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1238,133 +1238,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1730,8 +1730,8 @@
   <sheetPr/>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1980,7 +1980,7 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>13</v>
@@ -2003,7 +2003,7 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>13</v>
@@ -2026,7 +2026,7 @@
         <v>13</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>13</v>
@@ -2049,7 +2049,7 @@
         <v>13</v>
       </c>
       <c r="G13">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>13</v>
@@ -2072,7 +2072,7 @@
         <v>13</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>13</v>
@@ -2095,7 +2095,7 @@
         <v>13</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>13</v>
@@ -2118,7 +2118,7 @@
         <v>13</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>13</v>
@@ -2141,7 +2141,7 @@
         <v>13</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>13</v>
@@ -2164,7 +2164,7 @@
         <v>13</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>13</v>
@@ -2187,7 +2187,7 @@
         <v>13</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>13</v>
@@ -2210,7 +2210,7 @@
         <v>13</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>13</v>
@@ -2233,7 +2233,7 @@
         <v>13</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>13</v>
@@ -2256,7 +2256,7 @@
         <v>13</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>13</v>
@@ -2279,7 +2279,7 @@
         <v>13</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>13</v>
@@ -2302,7 +2302,7 @@
         <v>13</v>
       </c>
       <c r="G24">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>13</v>
@@ -2325,7 +2325,7 @@
         <v>13</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>13</v>
@@ -2348,7 +2348,7 @@
         <v>13</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>13</v>
@@ -2371,7 +2371,7 @@
         <v>13</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>13</v>
@@ -2394,7 +2394,7 @@
         <v>13</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>13</v>
@@ -2417,7 +2417,7 @@
         <v>13</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>13</v>
@@ -2440,7 +2440,7 @@
         <v>13</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>13</v>
@@ -2463,7 +2463,7 @@
         <v>13</v>
       </c>
       <c r="G31">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>13</v>
@@ -2486,7 +2486,7 @@
         <v>13</v>
       </c>
       <c r="G32">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>13</v>
@@ -2509,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>13</v>
@@ -2532,7 +2532,7 @@
         <v>13</v>
       </c>
       <c r="G34">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>13</v>
@@ -2555,7 +2555,7 @@
         <v>13</v>
       </c>
       <c r="G35">
-        <v>30</v>
+        <v>340</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>13</v>
@@ -2578,7 +2578,7 @@
         <v>13</v>
       </c>
       <c r="G36">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>13</v>
@@ -2601,7 +2601,7 @@
         <v>13</v>
       </c>
       <c r="G37">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>13</v>
@@ -2624,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>370</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>13</v>
@@ -2647,7 +2647,7 @@
         <v>13</v>
       </c>
       <c r="G39">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>13</v>
@@ -2670,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>390</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>13</v>
@@ -2693,7 +2693,7 @@
         <v>13</v>
       </c>
       <c r="G41">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>13</v>
@@ -2716,7 +2716,7 @@
         <v>13</v>
       </c>
       <c r="G42">
-        <v>30</v>
+        <v>410</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>13</v>
@@ -2739,7 +2739,7 @@
         <v>13</v>
       </c>
       <c r="G43">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>13</v>
@@ -2762,7 +2762,7 @@
         <v>13</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>430</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>13</v>
@@ -2785,7 +2785,7 @@
         <v>13</v>
       </c>
       <c r="G45">
-        <v>60</v>
+        <v>440</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>13</v>
@@ -2808,7 +2808,7 @@
         <v>13</v>
       </c>
       <c r="G46">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>13</v>
@@ -2831,7 +2831,7 @@
         <v>13</v>
       </c>
       <c r="G47">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>13</v>
@@ -2854,7 +2854,7 @@
         <v>13</v>
       </c>
       <c r="G48">
-        <v>81</v>
+        <v>470</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>13</v>
@@ -2877,7 +2877,7 @@
         <v>13</v>
       </c>
       <c r="G49">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>13</v>
@@ -2900,7 +2900,7 @@
         <v>13</v>
       </c>
       <c r="G50">
-        <v>83</v>
+        <v>490</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>13</v>
@@ -2923,7 +2923,7 @@
         <v>13</v>
       </c>
       <c r="G51">
-        <v>84</v>
+        <v>500</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>13</v>
@@ -2946,7 +2946,7 @@
         <v>13</v>
       </c>
       <c r="G52">
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>13</v>
@@ -2969,7 +2969,7 @@
         <v>13</v>
       </c>
       <c r="G53">
-        <v>86</v>
+        <v>520</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>13</v>
@@ -2992,7 +2992,7 @@
         <v>13</v>
       </c>
       <c r="G54">
-        <v>87</v>
+        <v>530</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>13</v>
@@ -3015,7 +3015,7 @@
         <v>13</v>
       </c>
       <c r="G55">
-        <v>88</v>
+        <v>540</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>13</v>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -743,9 +743,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -765,6 +765,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -772,7 +779,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,6 +795,52 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,38 +861,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,28 +892,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -895,14 +903,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,7 +929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,31 +941,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,19 +983,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,19 +1007,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,37 +1049,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,37 +1079,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,8 +1137,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,6 +1158,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1169,15 +1178,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,8 +1215,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,10 +1226,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1238,133 +1238,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1730,8 +1730,8 @@
   <sheetPr/>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="246">
   <si>
     <t>id</t>
   </si>
@@ -239,6 +239,15 @@
     <t>GPSAccount</t>
   </si>
   <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>作业管理台账</t>
+  </si>
+  <si>
+    <t>jobManagementAccount</t>
+  </si>
+  <si>
     <t>130</t>
   </si>
   <si>
@@ -573,6 +582,15 @@
   </si>
   <si>
     <t>deviceArchivesTemplate</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>作业管理台账模板</t>
+  </si>
+  <si>
+    <t>jobManagementAccountTemplate</t>
   </si>
   <si>
     <t>合并到企业简要介绍</t>
@@ -742,8 +760,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -765,28 +783,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,68 +798,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,6 +835,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -903,6 +905,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,30 +947,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -965,7 +959,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,19 +983,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,7 +1025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,37 +1055,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,37 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,13 +1109,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,23 +1155,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,6 +1200,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1211,25 +1238,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1238,133 +1256,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1728,10 +1746,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2233,36 +2251,36 @@
         <v>13</v>
       </c>
       <c r="G21">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>200</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22">
-        <v>210</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2279,13 +2297,13 @@
         <v>13</v>
       </c>
       <c r="G23">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2302,13 +2320,13 @@
         <v>13</v>
       </c>
       <c r="G24">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2325,36 +2343,36 @@
         <v>13</v>
       </c>
       <c r="G25">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
         <v>91</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>240</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26">
-        <v>250</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2371,13 +2389,13 @@
         <v>13</v>
       </c>
       <c r="G27">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2394,36 +2412,36 @@
         <v>13</v>
       </c>
       <c r="G28">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
         <v>101</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>102</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>270</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29">
-        <v>280</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2440,13 +2458,13 @@
         <v>13</v>
       </c>
       <c r="G30">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2463,13 +2481,13 @@
         <v>13</v>
       </c>
       <c r="G31">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2486,13 +2504,13 @@
         <v>13</v>
       </c>
       <c r="G32">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2509,36 +2527,36 @@
         <v>13</v>
       </c>
       <c r="G33">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
         <v>117</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>118</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>320</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34">
-        <v>330</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2555,13 +2573,13 @@
         <v>13</v>
       </c>
       <c r="G35">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2578,36 +2596,36 @@
         <v>13</v>
       </c>
       <c r="G36">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
         <v>127</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>128</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>350</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37">
-        <v>360</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2624,36 +2642,36 @@
         <v>13</v>
       </c>
       <c r="G38">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
         <v>134</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>135</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>370</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39">
-        <v>380</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2670,36 +2688,36 @@
         <v>13</v>
       </c>
       <c r="G40">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
         <v>141</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>142</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>390</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41">
-        <v>400</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2716,13 +2734,13 @@
         <v>13</v>
       </c>
       <c r="G42">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2739,13 +2757,13 @@
         <v>13</v>
       </c>
       <c r="G43">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2762,13 +2780,13 @@
         <v>13</v>
       </c>
       <c r="G44">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2785,13 +2803,13 @@
         <v>13</v>
       </c>
       <c r="G45">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2808,13 +2826,13 @@
         <v>13</v>
       </c>
       <c r="G46">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2831,13 +2849,13 @@
         <v>13</v>
       </c>
       <c r="G47">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2854,13 +2872,13 @@
         <v>13</v>
       </c>
       <c r="G48">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2877,13 +2895,13 @@
         <v>13</v>
       </c>
       <c r="G49">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2900,13 +2918,13 @@
         <v>13</v>
       </c>
       <c r="G50">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2923,13 +2941,13 @@
         <v>13</v>
       </c>
       <c r="G51">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2946,13 +2964,13 @@
         <v>13</v>
       </c>
       <c r="G52">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2969,13 +2987,13 @@
         <v>13</v>
       </c>
       <c r="G53">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2992,13 +3010,13 @@
         <v>13</v>
       </c>
       <c r="G54">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3015,13 +3033,59 @@
         <v>13</v>
       </c>
       <c r="G55">
+        <v>530</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" t="s">
+        <v>188</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56">
         <v>540</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>140</v>
+      <c r="I56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <v>550</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3077,7 +3141,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3433,13 +3497,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>13</v>
@@ -3451,18 +3515,18 @@
         <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -3474,18 +3538,18 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -3497,18 +3561,18 @@
         <v>13</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
@@ -3520,7 +3584,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3528,10 +3592,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -3548,13 +3612,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -3571,13 +3635,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
@@ -3597,10 +3661,10 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -3612,18 +3676,18 @@
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>13</v>
@@ -3635,18 +3699,18 @@
         <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
@@ -3658,18 +3722,18 @@
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
@@ -3681,18 +3745,18 @@
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
@@ -3704,7 +3768,7 @@
         <v>13</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3755,13 +3819,13 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
@@ -3773,18 +3837,18 @@
         <v>13</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>13</v>
@@ -3796,18 +3860,18 @@
         <v>13</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>13</v>
@@ -3819,18 +3883,18 @@
         <v>13</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D34" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
@@ -3842,18 +3906,18 @@
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>13</v>
@@ -3865,18 +3929,18 @@
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>13</v>
@@ -3888,18 +3952,18 @@
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>13</v>
@@ -3911,18 +3975,18 @@
         <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>13</v>
@@ -3934,18 +3998,18 @@
         <v>13</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>13</v>
@@ -3957,18 +4021,18 @@
         <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -3980,18 +4044,18 @@
         <v>13</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -4003,18 +4067,18 @@
         <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>13</v>
@@ -4026,18 +4090,18 @@
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>13</v>
@@ -4049,18 +4113,18 @@
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>13</v>
@@ -4072,18 +4136,18 @@
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>13</v>
@@ -4095,19 +4159,19 @@
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
@@ -4121,18 +4185,18 @@
         <v>13</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>13</v>
@@ -4144,18 +4208,18 @@
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>13</v>
@@ -4167,18 +4231,18 @@
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>13</v>
@@ -4190,18 +4254,18 @@
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>13</v>
@@ -4213,18 +4277,18 @@
         <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>13</v>
@@ -4236,18 +4300,18 @@
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>13</v>
@@ -4259,18 +4323,18 @@
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>13</v>
@@ -4282,18 +4346,18 @@
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>13</v>
@@ -4305,18 +4369,18 @@
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>13</v>
@@ -4328,18 +4392,18 @@
         <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>13</v>
@@ -4351,18 +4415,18 @@
         <v>13</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>13</v>
@@ -4374,18 +4438,18 @@
         <v>13</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>13</v>
@@ -4397,18 +4461,18 @@
         <v>13</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>13</v>
@@ -4420,7 +4484,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="259">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,450 @@
     <t>dirId</t>
   </si>
   <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>企业简介</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>组织架构</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>人员列表</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>人员档案</t>
+  </si>
+  <si>
+    <t>empArchives</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>设备档案</t>
+  </si>
+  <si>
+    <t>deviceArchives</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>法规及收文</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>企业制度</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>企业发文</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>风险辨识</t>
+  </si>
+  <si>
+    <t>riskControl</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>应急预案</t>
+  </si>
+  <si>
+    <t>emergencyPlanBak</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>安全投入台账</t>
+  </si>
+  <si>
+    <t>safetyAccount</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>GPS监控台账</t>
+  </si>
+  <si>
+    <t>GPSAccount</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>作业管理台账</t>
+  </si>
+  <si>
+    <t>jobManagementAccount</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>安全会议台账</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>宣传教育培训</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>日常安全检查</t>
+  </si>
+  <si>
+    <t>securityCheck</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>设备点检台账</t>
+  </si>
+  <si>
+    <t>deviceCheck</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>危险货物自查</t>
+  </si>
+  <si>
+    <t>dangerGoodsCheck</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>罐式车辆检查</t>
+  </si>
+  <si>
+    <t>tankVehicle</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>责任制</t>
+  </si>
+  <si>
+    <t>examination</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>责任考核</t>
+  </si>
+  <si>
+    <t>securityExamination</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>安全目标考核</t>
+  </si>
+  <si>
+    <t>goalExamination</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>应急预案演练</t>
+  </si>
+  <si>
+    <t>emergencyPlanDrill</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>职业健康记录</t>
+  </si>
+  <si>
+    <t>healthyRecord</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>标准化自评</t>
+  </si>
+  <si>
+    <t>standardization</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>安全文化建设</t>
+  </si>
+  <si>
+    <t>securityBuild</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>安全生产月</t>
+  </si>
+  <si>
+    <t>securityMonth</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>其他安全活动</t>
+  </si>
+  <si>
+    <t>securityActivity</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>事故记录处理</t>
+  </si>
+  <si>
+    <t>accidentRecord</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>四不放过记录</t>
+  </si>
+  <si>
+    <t>fourRecord</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>企业制度模板</t>
+  </si>
+  <si>
+    <t>rulesTemplate</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>日常安全检查模板</t>
+  </si>
+  <si>
+    <t>securityCheckTemplate</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>设备点检台账模板</t>
+  </si>
+  <si>
+    <t>deviceCheckTemplate</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>罐式车辆检查模板</t>
+  </si>
+  <si>
+    <t>tankVehicleTemplate</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>风险排查模板</t>
+  </si>
+  <si>
+    <t>riskCheckTemplate</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>安全会议台账模板</t>
+  </si>
+  <si>
+    <t>meetingTemplate</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>宣传教育培训模板</t>
+  </si>
+  <si>
+    <t>trainingTemplate</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>责任制模板</t>
+  </si>
+  <si>
+    <t>responsibilityTemplate</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>危险货物自查模板</t>
+  </si>
+  <si>
+    <t>dangerGoodsCheckTemplate</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>责任考核模板</t>
+  </si>
+  <si>
+    <t>securityExaminationTemplate</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>安全目标考核模板</t>
+  </si>
+  <si>
+    <t>goalExaminationTemplate</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>应急预案演练模板</t>
+  </si>
+  <si>
+    <t>emergencyPlanDrillTemplate</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>职业健康记录模板</t>
+  </si>
+  <si>
+    <t>healthyRecordTemplate</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>标准化自评模板</t>
+  </si>
+  <si>
+    <t>standardizationTemplate</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>人员档案模板</t>
+  </si>
+  <si>
+    <t>empArchivesTemplate</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>设备档案模板</t>
+  </si>
+  <si>
+    <t>deviceArchivesTemplate</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>作业管理台账模板</t>
+  </si>
+  <si>
+    <t>jobManagementAccountTemplate</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
@@ -56,12 +500,12 @@
     <t>user</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>用户管理,包含区域管理员管理</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
@@ -137,610 +581,205 @@
     <t>areaManager</t>
   </si>
   <si>
-    <t>109</t>
+    <t>合并到企业简要介绍</t>
   </si>
   <si>
     <t>企业简要介绍</t>
   </si>
   <si>
-    <t>introduction</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>管理组织架构</t>
   </si>
   <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>企业人员资料</t>
   </si>
   <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>法律法规政策</t>
   </si>
   <si>
-    <t>law</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>安全制度规章</t>
   </si>
   <si>
-    <t>rules</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
     <t>企业发文通知</t>
   </si>
   <si>
-    <t>notification</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>人员档案</t>
-  </si>
-  <si>
-    <t>empArchives</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>设备档案</t>
-  </si>
-  <si>
-    <t>deviceArchives</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>安全投入台账</t>
-  </si>
-  <si>
-    <t>safetyAccount</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>GPS监控台账</t>
-  </si>
-  <si>
-    <t>GPSAccount</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>作业管理台账</t>
-  </si>
-  <si>
-    <t>jobManagementAccount</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>安全会议台账</t>
-  </si>
-  <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>宣传教育培训</t>
-  </si>
-  <si>
-    <t>training</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>日常安全检查</t>
-  </si>
-  <si>
-    <t>securityCheck</t>
-  </si>
-  <si>
-    <t>100001</t>
+    <t>116</t>
+  </si>
+  <si>
+    <t>企业架构设置</t>
+  </si>
+  <si>
+    <t>structureSet</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>岗位设置任命</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>集体机构任命</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>基层岗位类别</t>
+  </si>
+  <si>
+    <t>positionCategory</t>
+  </si>
+  <si>
+    <t>岗位人员档案</t>
+  </si>
+  <si>
+    <t>positionArchives</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>类别人员档案</t>
+  </si>
+  <si>
+    <t>categoryArchives</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>所有资质展示</t>
+  </si>
+  <si>
+    <t>qualificationsShow</t>
+  </si>
+  <si>
+    <t>运营设备档案</t>
+  </si>
+  <si>
+    <t>operateArchives</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>安全设备档案</t>
+  </si>
+  <si>
+    <t>securityArchives</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>应急设备档案</t>
+  </si>
+  <si>
+    <t>emergencyArchives</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>特种设备档案</t>
+  </si>
+  <si>
+    <t>specialArchives</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>其他设备档案</t>
+  </si>
+  <si>
+    <t>otherArchives</t>
+  </si>
+  <si>
+    <t>safetyMeetingAccount</t>
+  </si>
+  <si>
+    <t>安全隐患排查</t>
+  </si>
+  <si>
+    <t>hiddenDangerCheck</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>责任制考核</t>
+  </si>
+  <si>
+    <t>安全责任考核</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>三年行动计划</t>
+  </si>
+  <si>
+    <t>threeYearsPlan</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>责任状签署</t>
+  </si>
+  <si>
+    <t>responsibilitySign</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>各种安全活动</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>hiddenDangerCheck2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>风险辨识管控</t>
+  </si>
+  <si>
+    <t>应急预案备案</t>
+  </si>
+  <si>
+    <t>事故记录及处理</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>安全规章制度</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>安全检查</t>
   </si>
   <si>
     <t>设备点检</t>
-  </si>
-  <si>
-    <t>deviceCheck</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>危险货物自查</t>
-  </si>
-  <si>
-    <t>dangerGoodsCheck</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>罐式车辆检查</t>
-  </si>
-  <si>
-    <t>tankVehicle</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>责任制考核</t>
-  </si>
-  <si>
-    <t>examination</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>安全责任考核</t>
-  </si>
-  <si>
-    <t>securityExamination</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>安全目标考核</t>
-  </si>
-  <si>
-    <t>goalExamination</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>应急预案演练</t>
-  </si>
-  <si>
-    <t>emergencyPlanDrill</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>职业健康记录</t>
-  </si>
-  <si>
-    <t>healthyRecord</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>标准化自评</t>
-  </si>
-  <si>
-    <t>standardization</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>安全文化建设</t>
-  </si>
-  <si>
-    <t>securityBuild</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>安全生产月</t>
-  </si>
-  <si>
-    <t>securityMonth</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>各种安全活动</t>
-  </si>
-  <si>
-    <t>securityActivity</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>风险辨识管控</t>
-  </si>
-  <si>
-    <t>riskControl</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>应急预案备案</t>
-  </si>
-  <si>
-    <t>emergencyPlanBak</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>事故记录及处理</t>
-  </si>
-  <si>
-    <t>accidentRecord</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>四不放过记录</t>
-  </si>
-  <si>
-    <t>fourRecord</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>安全规章制度模板</t>
-  </si>
-  <si>
-    <t>rulesTemplate</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>安全检查模板</t>
-  </si>
-  <si>
-    <t>securityCheckTemplate</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>设备点检模板</t>
-  </si>
-  <si>
-    <t>deviceCheckTemplate</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>罐式车辆检查模板</t>
-  </si>
-  <si>
-    <t>tankVehicleTemplate</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>风险排查模板</t>
-  </si>
-  <si>
-    <t>riskCheckTemplate</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>会议模板</t>
-  </si>
-  <si>
-    <t>meetingTemplate</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>培训模板</t>
-  </si>
-  <si>
-    <t>trainingTemplate</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>责任书模板</t>
-  </si>
-  <si>
-    <t>responsibilityTemplate</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>危险货物自查模板</t>
-  </si>
-  <si>
-    <t>dangerGoodsCheckTemplate</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>安全责任考核模板</t>
-  </si>
-  <si>
-    <t>securityExaminationTemplate</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>安全目标考核模板</t>
-  </si>
-  <si>
-    <t>goalExaminationTemplate</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>应急预案演练模板</t>
-  </si>
-  <si>
-    <t>emergencyPlanDrillTemplate</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>职业健康记录模板</t>
-  </si>
-  <si>
-    <t>healthyRecordTemplate</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>标准化自评模板</t>
-  </si>
-  <si>
-    <t>standardizationTemplate</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>人员档案模板</t>
-  </si>
-  <si>
-    <t>empArchivesTemplate</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>设备档案模板</t>
-  </si>
-  <si>
-    <t>deviceArchivesTemplate</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>作业管理台账模板</t>
-  </si>
-  <si>
-    <t>jobManagementAccountTemplate</t>
-  </si>
-  <si>
-    <t>合并到企业简要介绍</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>企业架构设置</t>
-  </si>
-  <si>
-    <t>structureSet</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>岗位设置任命</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>集体机构任命</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>基层岗位类别</t>
-  </si>
-  <si>
-    <t>positionCategory</t>
-  </si>
-  <si>
-    <t>岗位人员档案</t>
-  </si>
-  <si>
-    <t>positionArchives</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>类别人员档案</t>
-  </si>
-  <si>
-    <t>categoryArchives</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>所有资质展示</t>
-  </si>
-  <si>
-    <t>qualificationsShow</t>
-  </si>
-  <si>
-    <t>运营设备档案</t>
-  </si>
-  <si>
-    <t>operateArchives</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>安全设备档案</t>
-  </si>
-  <si>
-    <t>securityArchives</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>应急设备档案</t>
-  </si>
-  <si>
-    <t>emergencyArchives</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>特种设备档案</t>
-  </si>
-  <si>
-    <t>specialArchives</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>其他设备档案</t>
-  </si>
-  <si>
-    <t>otherArchives</t>
-  </si>
-  <si>
-    <t>safetyMeetingAccount</t>
-  </si>
-  <si>
-    <t>安全隐患排查</t>
-  </si>
-  <si>
-    <t>hiddenDangerCheck</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>三年行动计划</t>
-  </si>
-  <si>
-    <t>threeYearsPlan</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>责任状签署</t>
-  </si>
-  <si>
-    <t>responsibilitySign</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>hiddenDangerCheck2</t>
-  </si>
-  <si>
-    <t>安全规章制度</t>
-  </si>
-  <si>
-    <t>安全检查</t>
   </si>
   <si>
     <t>风险排查</t>
@@ -760,10 +799,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -782,61 +821,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,13 +845,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -865,32 +852,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -910,9 +875,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,7 +920,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,37 +986,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,13 +1040,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,13 +1064,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,13 +1118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,13 +1136,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,61 +1160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,46 +1180,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,23 +1213,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1238,16 +1268,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1256,133 +1295,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1748,18 +1787,19 @@
   <sheetPr/>
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55:J57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="6.125" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
@@ -1810,9 +1850,6 @@
       <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1822,13 +1859,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
@@ -1845,13 +1882,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
@@ -1868,13 +1905,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>13</v>
@@ -1891,13 +1928,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -1905,9 +1942,6 @@
       <c r="G6">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
       <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1917,13 +1951,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -1935,18 +1969,18 @@
         <v>13</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -1958,18 +1992,18 @@
         <v>13</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
@@ -1981,18 +2015,18 @@
         <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>13</v>
@@ -2004,18 +2038,18 @@
         <v>13</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>13</v>
@@ -2027,18 +2061,18 @@
         <v>13</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>13</v>
@@ -2050,18 +2084,18 @@
         <v>13</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>13</v>
@@ -2073,18 +2107,18 @@
         <v>13</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>13</v>
@@ -2096,18 +2130,18 @@
         <v>13</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>13</v>
@@ -2119,18 +2153,18 @@
         <v>13</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
         <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>13</v>
@@ -2142,18 +2176,18 @@
         <v>13</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>13</v>
@@ -2165,18 +2199,18 @@
         <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -2188,18 +2222,18 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -2211,18 +2245,18 @@
         <v>13</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
@@ -2234,858 +2268,864 @@
         <v>13</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G21">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G22">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G23">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G24">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G25">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G26">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G27">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G28">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G29">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G30">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G31">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G32">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G33">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G34">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G35">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G36">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G37">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G38">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G39">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G40">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G41">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G42">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G43">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G44">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G45">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G46">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G47">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G48">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G49">
-        <v>470</v>
+        <v>480</v>
+      </c>
+      <c r="H49" t="s">
+        <v>161</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G50">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G51">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G52">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G53">
-        <v>510</v>
+        <v>520</v>
+      </c>
+      <c r="H53" t="s">
+        <v>175</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G54">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G55">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D56" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G56">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G57">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3141,18 +3181,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -3161,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>13</v>
@@ -3172,13 +3212,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
@@ -3195,13 +3235,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
@@ -3218,13 +3258,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>13</v>
@@ -3241,13 +3281,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -3256,7 +3296,7 @@
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>13</v>
@@ -3267,13 +3307,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -3290,13 +3330,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -3313,13 +3353,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
@@ -3336,13 +3376,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>13</v>
@@ -3359,13 +3399,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>13</v>
@@ -3377,18 +3417,18 @@
         <v>13</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>13</v>
@@ -3400,18 +3440,18 @@
         <v>13</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>13</v>
@@ -3423,18 +3463,18 @@
         <v>13</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>13</v>
@@ -3446,18 +3486,18 @@
         <v>13</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>13</v>
@@ -3469,18 +3509,18 @@
         <v>13</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>13</v>
@@ -3492,18 +3532,18 @@
         <v>13</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>13</v>
@@ -3515,18 +3555,18 @@
         <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -3538,18 +3578,18 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -3561,18 +3601,18 @@
         <v>13</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
@@ -3584,18 +3624,18 @@
         <v>13</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -3607,18 +3647,18 @@
         <v>13</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -3630,18 +3670,18 @@
         <v>13</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
@@ -3653,18 +3693,18 @@
         <v>13</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -3676,7 +3716,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>216</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3699,7 +3739,7 @@
         <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>216</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3722,7 +3762,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>216</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3745,7 +3785,7 @@
         <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>216</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3768,18 +3808,18 @@
         <v>13</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>216</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>13</v>
@@ -3791,18 +3831,18 @@
         <v>13</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>13</v>
@@ -3814,15 +3854,15 @@
         <v>13</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
         <v>229</v>
@@ -3837,18 +3877,18 @@
         <v>13</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>13</v>
@@ -3860,18 +3900,18 @@
         <v>13</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>13</v>
@@ -3883,12 +3923,12 @@
         <v>13</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>230</v>
@@ -3906,18 +3946,18 @@
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>13</v>
@@ -3929,18 +3969,18 @@
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>13</v>
@@ -3952,18 +3992,18 @@
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>13</v>
@@ -3975,18 +4015,18 @@
         <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>13</v>
@@ -3998,18 +4038,18 @@
         <v>13</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>13</v>
@@ -4021,18 +4061,18 @@
         <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -4044,18 +4084,18 @@
         <v>13</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D41" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -4067,18 +4107,18 @@
         <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>13</v>
@@ -4090,18 +4130,18 @@
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>13</v>
@@ -4113,18 +4153,18 @@
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>13</v>
@@ -4136,18 +4176,18 @@
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="4" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>13</v>
@@ -4159,19 +4199,19 @@
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
@@ -4185,18 +4225,18 @@
         <v>13</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>13</v>
@@ -4208,18 +4248,18 @@
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>13</v>
@@ -4231,18 +4271,18 @@
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>13</v>
@@ -4254,18 +4294,18 @@
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>13</v>
@@ -4277,18 +4317,18 @@
         <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>13</v>
@@ -4300,18 +4340,18 @@
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>13</v>
@@ -4323,18 +4363,18 @@
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>13</v>
@@ -4346,18 +4386,18 @@
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>13</v>
@@ -4369,18 +4409,18 @@
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>13</v>
@@ -4392,18 +4432,18 @@
         <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>13</v>
@@ -4415,18 +4455,18 @@
         <v>13</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>13</v>
@@ -4438,18 +4478,18 @@
         <v>13</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D58" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>13</v>
@@ -4461,18 +4501,18 @@
         <v>13</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>13</v>
@@ -4484,7 +4524,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="277">
   <si>
     <t>id</t>
   </si>
@@ -579,6 +579,60 @@
   </si>
   <si>
     <t>areaManager</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>风险等级</t>
+  </si>
+  <si>
+    <t>riskLevel</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>安全文化建设模板</t>
+  </si>
+  <si>
+    <t>securityBuildTemplate</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>安全生产月模板</t>
+  </si>
+  <si>
+    <t>securityMonthTemplate</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>其他安全活动模板</t>
+  </si>
+  <si>
+    <t>securityActivityTemplate</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>事故记录处理模板</t>
+  </si>
+  <si>
+    <t>accidentRecordTemplate</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>四不放过记录模板</t>
+  </si>
+  <si>
+    <t>fourRecordTemplate</t>
   </si>
   <si>
     <t>合并到企业简要介绍</t>
@@ -799,10 +853,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -821,67 +875,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -890,61 +883,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,9 +898,124 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -986,43 +1040,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,6 +1088,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1052,13 +1166,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +1196,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,79 +1208,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,21 +1231,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1212,9 +1251,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,32 +1289,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,7 +1312,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,10 +1337,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1295,133 +1349,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1785,21 +1839,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="6.125" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
     <col min="5" max="5" width="29.75" customWidth="1"/>
     <col min="6" max="6" width="5.625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
@@ -3126,6 +3180,144 @@
       </c>
       <c r="J57" s="4" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58">
+        <v>570</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59">
+        <v>580</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60">
+        <v>590</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61">
+        <v>600</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62">
+        <v>610</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63">
+        <v>620</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3373,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3402,7 +3594,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -3425,7 +3617,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -3448,7 +3640,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -3471,7 +3663,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -3494,7 +3686,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -3517,7 +3709,7 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
@@ -3537,13 +3729,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>13</v>
@@ -3560,13 +3752,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -3583,13 +3775,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -3606,13 +3798,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
@@ -3632,10 +3824,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -3652,13 +3844,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -3675,13 +3867,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D23" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
@@ -3701,10 +3893,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D24" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -3721,13 +3913,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>13</v>
@@ -3744,13 +3936,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
@@ -3767,13 +3959,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
@@ -3790,13 +3982,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
@@ -3865,7 +4057,7 @@
         <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
@@ -3931,10 +4123,10 @@
         <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
@@ -3946,7 +4138,7 @@
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3954,7 +4146,7 @@
         <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
         <v>72</v>
@@ -3969,7 +4161,7 @@
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3977,7 +4169,7 @@
         <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
         <v>76</v>
@@ -3992,7 +4184,7 @@
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4015,7 +4207,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4038,7 +4230,7 @@
         <v>13</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4061,18 +4253,18 @@
         <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D40" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -4084,18 +4276,18 @@
         <v>13</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="D41" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -4107,7 +4299,7 @@
         <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4130,7 +4322,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -4153,7 +4345,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -4176,7 +4368,7 @@
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -4184,7 +4376,7 @@
         <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="D45" t="s">
         <v>98</v>
@@ -4199,19 +4391,19 @@
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
@@ -4225,7 +4417,7 @@
         <v>13</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4233,7 +4425,7 @@
         <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D47" t="s">
         <v>38</v>
@@ -4248,7 +4440,7 @@
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4256,7 +4448,7 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D48" t="s">
         <v>41</v>
@@ -4271,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -4279,7 +4471,7 @@
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s">
         <v>101</v>
@@ -4294,7 +4486,7 @@
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4317,7 +4509,7 @@
         <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -4325,7 +4517,7 @@
         <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D51" t="s">
         <v>108</v>
@@ -4340,7 +4532,7 @@
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4348,7 +4540,7 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D52" t="s">
         <v>112</v>
@@ -4363,7 +4555,7 @@
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4371,7 +4563,7 @@
         <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D53" t="s">
         <v>115</v>
@@ -4386,7 +4578,7 @@
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4409,7 +4601,7 @@
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4417,7 +4609,7 @@
         <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="D55" t="s">
         <v>121</v>
@@ -4432,7 +4624,7 @@
         <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4440,7 +4632,7 @@
         <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D56" t="s">
         <v>124</v>
@@ -4455,7 +4647,7 @@
         <v>13</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4463,7 +4655,7 @@
         <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="D57" t="s">
         <v>127</v>
@@ -4478,7 +4670,7 @@
         <v>13</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4486,7 +4678,7 @@
         <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="D58" t="s">
         <v>130</v>
@@ -4501,7 +4693,7 @@
         <v>13</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4524,7 +4716,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="283">
   <si>
     <t>id</t>
   </si>
@@ -633,6 +633,24 @@
   </si>
   <si>
     <t>fourRecordTemplate</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>安全投入台账模板</t>
+  </si>
+  <si>
+    <t>safetyAccountTemplate</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>GPS记录模板</t>
+  </si>
+  <si>
+    <t>gpsAccountTemplate</t>
   </si>
   <si>
     <t>合并到企业简要介绍</t>
@@ -853,10 +871,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -883,15 +901,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,9 +936,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,21 +968,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,7 +992,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,6 +1015,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -990,32 +1031,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1046,7 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,7 +1076,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1166,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,19 +1208,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,121 +1238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,6 +1249,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1259,88 +1349,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1349,121 +1367,121 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1472,10 +1490,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1839,10 +1857,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3317,6 +3335,52 @@
         <v>13</v>
       </c>
       <c r="J63" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64">
+        <v>630</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65">
+        <v>640</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3373,7 +3437,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3594,7 +3658,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -3617,7 +3681,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -3640,7 +3704,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -3663,7 +3727,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -3686,7 +3750,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -3709,7 +3773,7 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
@@ -3729,13 +3793,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D17" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>13</v>
@@ -3752,13 +3816,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -3775,13 +3839,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -3798,13 +3862,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
@@ -3824,10 +3888,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -3844,13 +3908,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -3867,13 +3931,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
@@ -3893,10 +3957,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -3913,13 +3977,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>13</v>
@@ -3936,13 +4000,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
@@ -3959,13 +4023,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
@@ -3982,13 +4046,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
@@ -4057,7 +4121,7 @@
         <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
@@ -4123,10 +4187,10 @@
         <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
@@ -4138,7 +4202,7 @@
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4146,7 +4210,7 @@
         <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D35" t="s">
         <v>72</v>
@@ -4161,7 +4225,7 @@
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4169,7 +4233,7 @@
         <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D36" t="s">
         <v>76</v>
@@ -4184,7 +4248,7 @@
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4207,7 +4271,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4230,7 +4294,7 @@
         <v>13</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4253,18 +4317,18 @@
         <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D40" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -4276,18 +4340,18 @@
         <v>13</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B41" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D41" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -4299,7 +4363,7 @@
         <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4322,7 +4386,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -4345,7 +4409,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -4368,7 +4432,7 @@
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -4376,7 +4440,7 @@
         <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D45" t="s">
         <v>98</v>
@@ -4391,19 +4455,19 @@
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
@@ -4417,7 +4481,7 @@
         <v>13</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4425,7 +4489,7 @@
         <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D47" t="s">
         <v>38</v>
@@ -4440,7 +4504,7 @@
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4448,7 +4512,7 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D48" t="s">
         <v>41</v>
@@ -4463,7 +4527,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -4471,7 +4535,7 @@
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D49" t="s">
         <v>101</v>
@@ -4486,7 +4550,7 @@
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4509,7 +4573,7 @@
         <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -4517,7 +4581,7 @@
         <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D51" t="s">
         <v>108</v>
@@ -4532,7 +4596,7 @@
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4540,7 +4604,7 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D52" t="s">
         <v>112</v>
@@ -4555,7 +4619,7 @@
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4563,7 +4627,7 @@
         <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D53" t="s">
         <v>115</v>
@@ -4578,7 +4642,7 @@
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4601,7 +4665,7 @@
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4609,7 +4673,7 @@
         <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D55" t="s">
         <v>121</v>
@@ -4624,7 +4688,7 @@
         <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4632,7 +4696,7 @@
         <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D56" t="s">
         <v>124</v>
@@ -4647,7 +4711,7 @@
         <v>13</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4655,7 +4719,7 @@
         <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D57" t="s">
         <v>127</v>
@@ -4670,7 +4734,7 @@
         <v>13</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4678,7 +4742,7 @@
         <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D58" t="s">
         <v>130</v>
@@ -4693,7 +4757,7 @@
         <v>13</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4716,7 +4780,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -871,10 +871,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -894,6 +894,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -901,7 +908,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,14 +961,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -951,87 +1029,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,7 +1058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1070,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +1142,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,25 +1184,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,121 +1232,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,48 +1254,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1319,33 +1297,55 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1355,10 +1355,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1367,16 +1367,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1385,115 +1385,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1859,8 +1859,8 @@
   <sheetPr/>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2173,7 +2173,7 @@
         <v>13</v>
       </c>
       <c r="G13">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>13</v>
@@ -2196,7 +2196,7 @@
         <v>13</v>
       </c>
       <c r="G14">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>13</v>
@@ -2219,7 +2219,7 @@
         <v>13</v>
       </c>
       <c r="G15">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>13</v>
@@ -2242,7 +2242,7 @@
         <v>13</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>13</v>
@@ -2265,7 +2265,7 @@
         <v>13</v>
       </c>
       <c r="G17">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>13</v>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>123</t>
   </si>
   <si>
-    <t>设备档案</t>
+    <t>设备列表</t>
   </si>
   <si>
     <t>deviceArchives</t>
@@ -236,16 +236,16 @@
     <t>examination</t>
   </si>
   <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>责任考核</t>
+  </si>
+  <si>
+    <t>securityExamination</t>
+  </si>
+  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>责任考核</t>
-  </si>
-  <si>
-    <t>securityExamination</t>
   </si>
   <si>
     <t>136</t>
@@ -871,9 +871,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -894,13 +894,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -908,7 +901,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,24 +915,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,6 +944,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -976,13 +968,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1015,7 +1000,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,6 +1019,21 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1058,13 +1058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,25 +1076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,7 +1100,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,25 +1148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,31 +1160,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,25 +1196,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,7 +1214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,13 +1232,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,6 +1258,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1293,15 +1302,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1313,6 +1313,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1331,169 +1349,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1860,11 +1860,12 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G17"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="32.875" customWidth="1"/>
@@ -2357,24 +2358,24 @@
         <v>13</v>
       </c>
       <c r="G21">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>76</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -2386,7 +2387,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2409,7 +2410,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2432,7 +2433,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2455,7 +2456,7 @@
         <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2478,7 +2479,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3811,7 +3812,7 @@
         <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3834,7 +3835,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3857,7 +3858,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3880,7 +3881,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4230,13 +4231,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>258</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>13</v>

--- a/src/main/resources/static/function.xlsx
+++ b/src/main/resources/static/function.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="286">
   <si>
     <t>id</t>
   </si>
@@ -651,6 +651,15 @@
   </si>
   <si>
     <t>gpsAccountTemplate</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>预设职位</t>
+  </si>
+  <si>
+    <t>commonPosition</t>
   </si>
   <si>
     <t>合并到企业简要介绍</t>
@@ -872,8 +881,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -893,8 +902,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,6 +927,30 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,8 +964,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,7 +988,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,38 +1012,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -999,6 +1031,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1006,34 +1039,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1058,7 +1067,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,13 +1199,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,157 +1241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,41 +1258,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1302,6 +1276,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1313,6 +1322,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1334,31 +1358,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1367,133 +1376,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1857,10 +1866,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3383,6 +3392,29 @@
       </c>
       <c r="J65" s="4" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66">
+        <v>650</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3438,7 +3470,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3659,7 +3691,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -3682,7 +3714,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -3705,7 +3737,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -3728,7 +3760,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -3751,7 +3783,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -3774,7 +3806,7 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
@@ -3794,13 +3826,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>13</v>
@@ -3817,13 +3849,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>13</v>
@@ -3840,13 +3872,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -3863,13 +3895,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
@@ -3889,10 +3921,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -3909,13 +3941,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -3932,13 +3964,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
@@ -3958,10 +3990,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -3978,13 +4010,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>13</v>
@@ -4001,13 +4033,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D26" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
@@ -4024,13 +4056,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D27" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>13</v>
@@ -4047,13 +4079,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D28" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>13</v>
@@ -4122,7 +4154,7 @@
         <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>13</v>
@@ -4188,10 +4220,10 @@
         <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D34" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>13</v>
@@ -4203,7 +4235,7 @@
         <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4211,7 +4243,7 @@
         <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D35" t="s">
         <v>72</v>
@@ -4226,7 +4258,7 @@
         <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4234,7 +4266,7 @@
         <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D36" t="s">
         <v>75</v>
@@ -4249,7 +4281,7 @@
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4272,7 +4304,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4295,7 +4327,7 @@
         <v>13</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4318,18 +4350,18 @@
         <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B40" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D40" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -4341,18 +4373,18 @@
         <v>13</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D41" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -4364,7 +4396,7 @@
         <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4387,7 +4419,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -4410,7 +4442,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -4433,7 +4465,7 @@
         <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -4441,7 +4473,7 @@
         <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D45" t="s">
         <v>98</v>
@@ -4456,19 +4488,19 @@
         <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="5" t="s">
@@ -4482,7 +4514,7 @@
         <v>13</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4490,7 +4522,7 @@
         <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D47" t="s">
         <v>38</v>
@@ -4505,7 +4537,7 @@
         <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4513,7 +4545,7 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D48" t="s">
         <v>41</v>
@@ -4528,7 +4560,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -4536,7 +4568,7 @@
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s">
         <v>101</v>
@@ -4551,7 +4583,7 @@
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4574,7 +4606,7 @@
         <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -4582,7 +4614,7 @@
         <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D51" t="s">
         <v>108</v>
@@ -4597,7 +4629,7 @@
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4605,7 +4637,7 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D52" t="s">
         <v>112</v>
@@ -4620,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4628,7 +4660,7 @@
         <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D53" t="s">
         <v>115</v>
@@ -4643,7 +4675,7 @@
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4666,7 +4698,7 @@
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4674,7 +4706,7 @@
         <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D55" t="s">
         <v>121</v>
@@ -4689,7 +4721,7 @@
         <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4697,7 +4729,7 @@
         <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D56" t="s">
         <v>124</v>
@@ -4712,7 +4744,7 @@
         <v>13</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4720,7 +4752,7 @@
         <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D57" t="s">
         <v>127</v>
@@ -4735,7 +4767,7 @@
         <v>13</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4743,7 +4775,7 @@
         <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D58" t="s">
         <v>130</v>
@@ -4758,7 +4790,7 @@
         <v>13</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4781,7 +4813,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
